--- a/Estudio_financiero_Demanda_Dinamica.xlsx
+++ b/Estudio_financiero_Demanda_Dinamica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" tabRatio="493" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda Dinamica" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="493">
   <si>
     <t>INFORMACIÓN PARA TENER EN CUENTA:</t>
   </si>
@@ -1456,6 +1456,57 @@
   </si>
   <si>
     <t>Couta Fija</t>
+  </si>
+  <si>
+    <t>CÁLCULOS DEL PUNTO DE EQUILIBRIO PE</t>
+  </si>
+  <si>
+    <t>*PE en Capacidad Instalada (%): PECI= CF/(IT-CV)</t>
+  </si>
+  <si>
+    <t>CF: Costos Fijos</t>
+  </si>
+  <si>
+    <t>IT: Ingresos Totales</t>
+  </si>
+  <si>
+    <t>CV:Costos Variables</t>
+  </si>
+  <si>
+    <t>PE en Capacidad Instalada PECI (%) =</t>
+  </si>
+  <si>
+    <t>*PE en Cantidades a Producir (Q): PECP=CF/(PU-CVu)</t>
+  </si>
+  <si>
+    <t>Pu:Precio unitario promedio</t>
+  </si>
+  <si>
+    <t>CVu:Costos Variable Unitario</t>
+  </si>
+  <si>
+    <t>PE en Capacidad a Producir PECP (Q)=</t>
+  </si>
+  <si>
+    <t>*PE en Volumen de Ventas ($): PEVV*=CF / (1-(CV/IT))</t>
+  </si>
+  <si>
+    <t>CV: Costos Variables</t>
+  </si>
+  <si>
+    <t>PE en Volumen de Ventas PEVV ($)=</t>
+  </si>
+  <si>
+    <t>PEVV*: PE en Volumenes de Ventas ($)</t>
+  </si>
+  <si>
+    <t>N: Número de Días Laborales año</t>
+  </si>
+  <si>
+    <t>PE en No. de dias Año PEDA (dias)=</t>
+  </si>
+  <si>
+    <t>*PE en No. de Dias año (dias): PEDA = PEVV*/(IT/N)</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1524,7 @@
     <numFmt numFmtId="170" formatCode="_-[$$-240A]\ * #,##0_ ;_-[$$-240A]\ * \-#,##0\ ;_-[$$-240A]\ * &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="171" formatCode="_-[$$-240A]\ * #,##0.0_ ;_-[$$-240A]\ * \-#,##0.0\ ;_-[$$-240A]\ * &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="172" formatCode="_-[$$-240A]\ * #,##0_ ;_-[$$-240A]\ * \-#,##0\ ;_-[$$-240A]\ * &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="[$$-240A]\ #,##0.00;[Red][$$-240A]\ #,##0.00"/>
+    <numFmt numFmtId="173" formatCode="[$$-240A]\ #,##0.00;[Red][$$-240A]\ #,##0.00"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1880,7 +1931,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2122,6 +2173,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2136,38 +2237,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2175,38 +2282,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2229,68 +2309,41 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2304,8 +2357,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2316,23 +2387,21 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2507,40 +2576,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>265</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>426</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>244</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>311</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>459</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>317</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>236</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,13 +3038,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2256</c:v>
+                  <c:v>3811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2475</c:v>
+                  <c:v>3412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4749</c:v>
+                  <c:v>3837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,36 +4890,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="A2" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="126"/>
+      <c r="D4" s="154"/>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4">
         <v>0.19</v>
       </c>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="128"/>
-      <c r="R4" s="131" t="s">
+      <c r="N4" s="158"/>
+      <c r="O4" s="156"/>
+      <c r="R4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="132"/>
+      <c r="S4" s="149"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="71" t="s">
@@ -4874,12 +4943,12 @@
       <c r="M5" s="6">
         <v>0.5</v>
       </c>
-      <c r="N5" s="127" t="s">
+      <c r="N5" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="128"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="134"/>
+      <c r="O5" s="156"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="151"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="71" t="s">
@@ -4894,10 +4963,10 @@
       <c r="M6" s="6">
         <v>0.5</v>
       </c>
-      <c r="N6" s="127" t="s">
+      <c r="N6" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="128"/>
+      <c r="O6" s="156"/>
       <c r="R6" s="7" t="s">
         <v>11</v>
       </c>
@@ -4920,24 +4989,24 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="10"/>
@@ -5099,91 +5168,91 @@
       </c>
       <c r="C13" s="15">
         <f ca="1">RANDBETWEEN(C12,C11)</f>
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D13" s="112">
         <f t="shared" ref="D13:N13" ca="1" si="1">RANDBETWEEN(D12,D11)</f>
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="F13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="G13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="H13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="J13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>311</v>
+        <v>495</v>
       </c>
       <c r="K13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="L13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="M13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="N13" s="112">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" ref="O13" ca="1" si="2">RANDBETWEEN(O12,O11)</f>
-        <v>2256</v>
+        <v>3811</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" ref="P13" ca="1" si="3">RANDBETWEEN(P12,P11)</f>
-        <v>2475</v>
+        <v>3412</v>
       </c>
       <c r="Q13" s="15">
         <f t="shared" ref="Q13" ca="1" si="4">RANDBETWEEN(Q12,Q11)</f>
-        <v>4749</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
     </row>
     <row r="33" spans="2:25" ht="27.75" customHeight="1">
       <c r="B33" s="11" t="s">
@@ -5257,7 +5326,7 @@
       </c>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="143" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5334,7 +5403,7 @@
       </c>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="136"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
@@ -5408,7 +5477,7 @@
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="136"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
@@ -5498,7 +5567,7 @@
       </c>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="143" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -5575,7 +5644,7 @@
       </c>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="136"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
@@ -5650,7 +5719,7 @@
       </c>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="136"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
@@ -5740,7 +5809,7 @@
       </c>
     </row>
     <row r="40" spans="2:25">
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="143" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5817,7 +5886,7 @@
       </c>
     </row>
     <row r="41" spans="2:25">
-      <c r="B41" s="136"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
@@ -5892,7 +5961,7 @@
       </c>
     </row>
     <row r="42" spans="2:25">
-      <c r="B42" s="136"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="21" t="s">
         <v>54</v>
       </c>
@@ -6071,54 +6140,54 @@
       </c>
     </row>
     <row r="47" spans="2:25">
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
     </row>
     <row r="48" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="138"/>
+      <c r="C48" s="146"/>
       <c r="D48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="139" t="s">
+      <c r="G48" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="139"/>
-      <c r="J48" s="139" t="s">
+      <c r="H48" s="142"/>
+      <c r="J48" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
       <c r="N48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="O48" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="Q48" s="142" t="s">
+      <c r="Q48" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="R48" s="142"/>
-      <c r="S48" s="142"/>
-      <c r="T48" s="142"/>
-      <c r="U48" s="142"/>
-      <c r="W48" s="140" t="s">
+      <c r="R48" s="145"/>
+      <c r="S48" s="145"/>
+      <c r="T48" s="145"/>
+      <c r="U48" s="145"/>
+      <c r="W48" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="X48" s="140"/>
-      <c r="Y48" s="140"/>
+      <c r="X48" s="141"/>
+      <c r="Y48" s="141"/>
     </row>
     <row r="49" spans="2:25">
-      <c r="B49" s="138" t="s">
+      <c r="B49" s="146" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6152,19 +6221,19 @@
       <c r="O49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q49" s="136" t="s">
+      <c r="Q49" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="R49" s="141" t="s">
+      <c r="R49" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="S49" s="141" t="s">
+      <c r="S49" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="141" t="s">
+      <c r="T49" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="U49" s="141"/>
+      <c r="U49" s="144"/>
       <c r="W49" s="34" t="s">
         <v>115</v>
       </c>
@@ -6176,7 +6245,7 @@
       </c>
     </row>
     <row r="50" spans="2:25">
-      <c r="B50" s="138"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -6209,9 +6278,9 @@
       <c r="O50" s="2">
         <v>8</v>
       </c>
-      <c r="Q50" s="136"/>
-      <c r="R50" s="141"/>
-      <c r="S50" s="141"/>
+      <c r="Q50" s="143"/>
+      <c r="R50" s="144"/>
+      <c r="S50" s="144"/>
       <c r="T50" s="10" t="s">
         <v>104</v>
       </c>
@@ -6230,7 +6299,7 @@
       </c>
     </row>
     <row r="51" spans="2:25">
-      <c r="B51" s="138"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
@@ -6287,7 +6356,7 @@
       </c>
     </row>
     <row r="52" spans="2:25">
-      <c r="B52" s="138"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
@@ -6343,7 +6412,7 @@
       </c>
     </row>
     <row r="53" spans="2:25">
-      <c r="B53" s="138"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="2" t="s">
         <v>61</v>
       </c>
@@ -6393,7 +6462,7 @@
       </c>
     </row>
     <row r="54" spans="2:25">
-      <c r="B54" s="138"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="2" t="s">
         <v>62</v>
       </c>
@@ -6433,7 +6502,7 @@
       </c>
     </row>
     <row r="55" spans="2:25">
-      <c r="B55" s="138" t="s">
+      <c r="B55" s="146" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -6472,7 +6541,7 @@
       </c>
     </row>
     <row r="56" spans="2:25">
-      <c r="B56" s="138"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
@@ -6495,7 +6564,7 @@
       </c>
     </row>
     <row r="57" spans="2:25">
-      <c r="B57" s="138"/>
+      <c r="B57" s="146"/>
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
@@ -6518,7 +6587,7 @@
       </c>
     </row>
     <row r="58" spans="2:25">
-      <c r="B58" s="138"/>
+      <c r="B58" s="146"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
       </c>
@@ -6545,6 +6614,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:X32"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B47:E47"/>
     <mergeCell ref="W48:Y48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="Q49:Q50"/>
@@ -6552,22 +6637,6 @@
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="T49:U49"/>
     <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:X32"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6579,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T209"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="B181" workbookViewId="0">
       <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
@@ -6602,27 +6671,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="173" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="H3" s="164" t="s">
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="H3" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
@@ -6646,11 +6715,11 @@
       <c r="F4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="164" t="s">
+      <c r="H4" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
       <c r="K4" s="40">
         <v>0</v>
       </c>
@@ -6677,11 +6746,11 @@
         <f>E5/$E$16</f>
         <v>0.69059405940594054</v>
       </c>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="40">
         <v>51000</v>
       </c>
@@ -6698,11 +6767,11 @@
       <c r="D6" s="73"/>
       <c r="E6" s="27"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="164" t="s">
+      <c r="H6" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
       <c r="K6" s="40">
         <v>0</v>
       </c>
@@ -6777,11 +6846,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
       <c r="K9" s="40">
         <v>0</v>
       </c>
@@ -6806,11 +6875,11 @@
       <c r="F10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="164" t="s">
+      <c r="H10" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
       <c r="K10" s="40">
         <v>0</v>
       </c>
@@ -6832,11 +6901,11 @@
         <f>E11/$E$16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="164" t="s">
+      <c r="H11" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
       <c r="K11" s="40">
         <v>0</v>
       </c>
@@ -6853,11 +6922,11 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
       <c r="K12" s="42">
         <f>SUM(K4:K11)</f>
         <v>640000</v>
@@ -6916,11 +6985,11 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="37">
         <f>E5+E8+E11+E15</f>
         <v>4848000</v>
@@ -6935,10 +7004,10 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="160"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
@@ -6976,49 +7045,49 @@
       <c r="E21" s="16"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="141" t="s">
+      <c r="E24" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="141" t="s">
+      <c r="F24" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="168" t="s">
+      <c r="G24" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="141" t="s">
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="144" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
@@ -7028,7 +7097,7 @@
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="141"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="22" t="s">
@@ -7076,13 +7145,13 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1">
-      <c r="B28" s="161" t="s">
+      <c r="B28" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="182"/>
       <c r="G28" s="64">
         <f>G27</f>
         <v>200000</v>
@@ -7159,13 +7228,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="185"/>
       <c r="G31" s="81">
         <f>G28+G30+G29</f>
         <v>200000</v>
@@ -7188,35 +7257,35 @@
       <c r="L31" s="17"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="141" t="s">
+      <c r="C34" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="141" t="s">
+      <c r="E34" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
       <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
@@ -7252,12 +7321,12 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="172" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="51" t="s">
@@ -7318,12 +7387,12 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="172" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="F44" s="145" t="s">
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="F44" s="173" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7337,7 +7406,7 @@
       <c r="D45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="145"/>
+      <c r="F45" s="173"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
@@ -7351,7 +7420,7 @@
         <f>C46*'Demanda Dinamica'!$L$50*'Demanda Dinamica'!F37</f>
         <v>606666.66666666663</v>
       </c>
-      <c r="F46" s="145"/>
+      <c r="F46" s="173"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="2" t="s">
@@ -7412,20 +7481,20 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="173" t="s">
+      <c r="B52" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="172" t="s">
+      <c r="B53" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="172"/>
+      <c r="C53" s="186"/>
       <c r="D53" s="22" t="s">
         <v>177</v>
       </c>
@@ -7440,10 +7509,10 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="126" t="s">
+      <c r="B54" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="126"/>
+      <c r="C54" s="154"/>
       <c r="D54" s="18">
         <f>E16</f>
         <v>4848000</v>
@@ -7462,10 +7531,10 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="126" t="s">
+      <c r="B55" s="154" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="126"/>
+      <c r="C55" s="154"/>
       <c r="D55" s="18">
         <v>0</v>
       </c>
@@ -7482,10 +7551,10 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="154" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="126"/>
+      <c r="C56" s="154"/>
       <c r="D56" s="18">
         <v>10000</v>
       </c>
@@ -7503,10 +7572,10 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="154" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="126"/>
+      <c r="C57" s="154"/>
       <c r="D57" s="18">
         <v>0</v>
       </c>
@@ -7521,10 +7590,10 @@
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="126"/>
+      <c r="C58" s="154"/>
       <c r="D58" s="18">
         <v>0</v>
       </c>
@@ -7539,10 +7608,10 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="126" t="s">
+      <c r="B59" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="126"/>
+      <c r="C59" s="154"/>
       <c r="D59" s="18">
         <v>0</v>
       </c>
@@ -7557,11 +7626,11 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="171" t="s">
+      <c r="B60" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="25">
         <f>SUM(E54:E59)</f>
         <v>168480</v>
@@ -7576,21 +7645,21 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="159" t="s">
+      <c r="B62" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
+      <c r="C62" s="178"/>
+      <c r="D62" s="178"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="178"/>
+      <c r="G62" s="178"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="138" t="s">
+      <c r="B63" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
       <c r="E63" s="22" t="s">
         <v>2</v>
       </c>
@@ -7602,13 +7671,13 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="165" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="126" t="s">
+      <c r="C64" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="126"/>
+      <c r="D64" s="154"/>
       <c r="E64" s="19">
         <f>0</f>
         <v>0</v>
@@ -7623,11 +7692,11 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="148"/>
-      <c r="C65" s="126" t="s">
+      <c r="B65" s="165"/>
+      <c r="C65" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="126"/>
+      <c r="D65" s="154"/>
       <c r="E65" s="19">
         <f>'Demanda Dinamica'!V39</f>
         <v>24963480</v>
@@ -7642,11 +7711,11 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="148"/>
-      <c r="C66" s="126" t="s">
+      <c r="B66" s="165"/>
+      <c r="C66" s="154" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="126"/>
+      <c r="D66" s="154"/>
       <c r="E66" s="19">
         <f>'Demanda Dinamica'!$V$42</f>
         <v>4109020</v>
@@ -7661,11 +7730,11 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="148"/>
-      <c r="C67" s="126" t="s">
+      <c r="B67" s="165"/>
+      <c r="C67" s="154" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="126"/>
+      <c r="D67" s="154"/>
       <c r="E67" s="19">
         <f>'Demanda Dinamica'!V36</f>
         <v>16262030</v>
@@ -7680,11 +7749,11 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="148"/>
-      <c r="C68" s="126" t="s">
+      <c r="B68" s="165"/>
+      <c r="C68" s="154" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="126"/>
+      <c r="D68" s="154"/>
       <c r="E68" s="19">
         <v>0</v>
       </c>
@@ -7698,11 +7767,11 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="148"/>
-      <c r="C69" s="174" t="s">
+      <c r="B69" s="165"/>
+      <c r="C69" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="174"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="58">
         <f>SUM(E64:E67)-E68</f>
         <v>45334530</v>
@@ -7720,13 +7789,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="148" t="s">
+      <c r="B70" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="126" t="s">
+      <c r="C70" s="154" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="126"/>
+      <c r="D70" s="154"/>
       <c r="E70" s="19">
         <v>0</v>
       </c>
@@ -7742,11 +7811,11 @@
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="148"/>
-      <c r="C71" s="126" t="s">
+      <c r="B71" s="165"/>
+      <c r="C71" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="126"/>
+      <c r="D71" s="154"/>
       <c r="E71" s="19">
         <f>G28</f>
         <v>200000</v>
@@ -7765,11 +7834,11 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="148"/>
-      <c r="C72" s="126" t="s">
+      <c r="B72" s="165"/>
+      <c r="C72" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="126"/>
+      <c r="D72" s="154"/>
       <c r="E72" s="19">
         <v>0</v>
       </c>
@@ -7785,11 +7854,11 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="148"/>
-      <c r="C73" s="126" t="s">
+      <c r="B73" s="165"/>
+      <c r="C73" s="154" t="s">
         <v>192</v>
       </c>
-      <c r="D73" s="126"/>
+      <c r="D73" s="154"/>
       <c r="E73" s="19">
         <v>0</v>
       </c>
@@ -7805,11 +7874,11 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="148"/>
-      <c r="C74" s="174" t="s">
+      <c r="B74" s="165"/>
+      <c r="C74" s="160" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="174"/>
+      <c r="D74" s="160"/>
       <c r="E74" s="58">
         <f xml:space="preserve"> SUM(E70:E73)</f>
         <v>200000</v>
@@ -7824,11 +7893,11 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="171" t="s">
+      <c r="B75" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="171"/>
-      <c r="D75" s="171"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
       <c r="E75" s="58">
         <f>E69+E74</f>
         <v>45534530</v>
@@ -7843,11 +7912,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="160" t="s">
         <v>202</v>
       </c>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="160"/>
       <c r="E78" s="58">
         <f>E75/('Demanda Dinamica'!$Y$52*12)</f>
         <v>3162.120138888889</v>
@@ -7862,23 +7931,23 @@
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="175" t="s">
+      <c r="B81" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="175"/>
+      <c r="C81" s="161"/>
       <c r="D81" s="4">
         <v>0.35</v>
       </c>
-      <c r="F81" s="175" t="s">
+      <c r="F81" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="175"/>
+      <c r="G81" s="161"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="175" t="s">
+      <c r="B82" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="175"/>
+      <c r="C82" s="161"/>
       <c r="D82" s="19">
         <f>E78*D81</f>
         <v>1106.7420486111112</v>
@@ -7892,10 +7961,10 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="177" t="s">
+      <c r="B83" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="177"/>
+      <c r="C83" s="162"/>
       <c r="D83" s="66">
         <f>E78*(1+D81)</f>
         <v>4268.8621875000008</v>
@@ -7936,11 +8005,11 @@
       </c>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="171" t="s">
+      <c r="B89" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="171"/>
-      <c r="D89" s="171"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="163"/>
       <c r="E89" s="58">
         <f>E78+G86</f>
         <v>4016.063330876389</v>
@@ -7955,32 +8024,32 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="176" t="s">
+      <c r="B92" s="159" t="s">
         <v>212</v>
       </c>
-      <c r="C92" s="176"/>
+      <c r="C92" s="159"/>
       <c r="D92" s="69">
         <f>+(D83-E89)/D83</f>
         <v>5.9219259259259402E-2</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="176" t="s">
+      <c r="B93" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="C93" s="176"/>
+      <c r="C93" s="159"/>
       <c r="D93" s="70">
         <f>E89*D92</f>
         <v>237.82829559277377</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="157" t="s">
+      <c r="B95" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="157"/>
-      <c r="D95" s="157"/>
-      <c r="E95" s="157"/>
+      <c r="C95" s="176"/>
+      <c r="D95" s="176"/>
+      <c r="E95" s="176"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="60" t="s">
@@ -8068,20 +8137,20 @@
       <c r="B102" s="76"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="158" t="s">
+      <c r="B103" s="177" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
+      <c r="C103" s="177"/>
+      <c r="D103" s="177"/>
+      <c r="E103" s="177"/>
+      <c r="F103" s="177"/>
+      <c r="G103" s="177"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="138" t="s">
+      <c r="B104" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C104" s="138"/>
+      <c r="C104" s="146"/>
       <c r="D104" s="63" t="s">
         <v>236</v>
       </c>
@@ -8096,10 +8165,10 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="152" t="s">
+      <c r="B105" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="152"/>
+      <c r="C105" s="171"/>
       <c r="D105" s="79">
         <f>'Demanda Dinamica'!I36</f>
         <v>2180290</v>
@@ -8118,10 +8187,10 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="152" t="s">
+      <c r="B106" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="152"/>
+      <c r="C106" s="171"/>
       <c r="D106" s="79">
         <f>E16</f>
         <v>4848000</v>
@@ -8140,10 +8209,10 @@
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="152" t="s">
+      <c r="B107" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="152"/>
+      <c r="C107" s="171"/>
       <c r="D107" s="79">
         <f>D55</f>
         <v>0</v>
@@ -8162,10 +8231,10 @@
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="152" t="s">
+      <c r="B108" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="152"/>
+      <c r="C108" s="171"/>
       <c r="D108" s="79">
         <f>D56</f>
         <v>10000</v>
@@ -8184,10 +8253,10 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="152" t="s">
+      <c r="B109" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="152"/>
+      <c r="C109" s="171"/>
       <c r="D109" s="79">
         <f>D57</f>
         <v>0</v>
@@ -8206,10 +8275,10 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="152" t="s">
+      <c r="B110" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="152"/>
+      <c r="C110" s="171"/>
       <c r="D110" s="79"/>
       <c r="E110" s="79">
         <f>G31</f>
@@ -8225,10 +8294,10 @@
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="152" t="s">
+      <c r="B111" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="152"/>
+      <c r="C111" s="171"/>
       <c r="D111" s="79"/>
       <c r="E111" s="79">
         <f>G31</f>
@@ -8244,10 +8313,10 @@
       </c>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="152" t="s">
+      <c r="B112" s="171" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="152"/>
+      <c r="C112" s="171"/>
       <c r="D112" s="79"/>
       <c r="E112" s="79">
         <f>E16/3</f>
@@ -8263,10 +8332,10 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="152" t="s">
+      <c r="B113" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="152"/>
+      <c r="C113" s="171"/>
       <c r="D113" s="79"/>
       <c r="E113" s="79">
         <v>0</v>
@@ -8280,10 +8349,10 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="152" t="s">
+      <c r="B114" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="C114" s="152"/>
+      <c r="C114" s="171"/>
       <c r="D114" s="79"/>
       <c r="E114" s="79">
         <v>0</v>
@@ -8296,11 +8365,11 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="153" t="s">
+      <c r="B115" s="183" t="s">
         <v>237</v>
       </c>
-      <c r="C115" s="154"/>
-      <c r="D115" s="155"/>
+      <c r="C115" s="184"/>
+      <c r="D115" s="185"/>
       <c r="E115" s="83">
         <f>SUM(E105:E114)</f>
         <v>18446510</v>
@@ -8315,12 +8384,12 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="156" t="s">
+      <c r="B117" s="187" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="156"/>
-      <c r="D117" s="156"/>
-      <c r="E117" s="156"/>
+      <c r="C117" s="187"/>
+      <c r="D117" s="187"/>
+      <c r="E117" s="187"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="84"/>
@@ -8407,15 +8476,15 @@
       </c>
       <c r="C124" s="77">
         <f ca="1">C121/'Demanda Dinamica'!O13</f>
-        <v>28360.390070921985</v>
+        <v>16788.517449488325</v>
       </c>
       <c r="D124" s="77">
         <f ca="1">D121/'Demanda Dinamica'!P13</f>
-        <v>27385.431272727274</v>
+        <v>19864.871746776087</v>
       </c>
       <c r="E124" s="77">
         <f ca="1">E121/'Demanda Dinamica'!Q13</f>
-        <v>14559.670917877451</v>
+        <v>18020.296374511341</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -8424,63 +8493,63 @@
       </c>
       <c r="C125" s="77">
         <f ca="1">C124+(C124*1.25)</f>
-        <v>63810.877659574471</v>
+        <v>37774.164261348735</v>
       </c>
       <c r="D125" s="77">
         <f t="shared" ref="D125:E125" ca="1" si="20">D124+(D124*1.25)</f>
-        <v>61617.22036363637</v>
+        <v>44695.9614302462</v>
       </c>
       <c r="E125" s="77">
         <f t="shared" ca="1" si="20"/>
-        <v>32759.259565224263</v>
+        <v>40545.66684265052</v>
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="B127" s="151" t="s">
+      <c r="B127" s="188" t="s">
         <v>264</v>
       </c>
-      <c r="C127" s="151"/>
-      <c r="D127" s="151"/>
-      <c r="E127" s="151"/>
-      <c r="F127" s="151"/>
-      <c r="G127" s="151"/>
-      <c r="H127" s="151"/>
-      <c r="I127" s="151"/>
-      <c r="J127" s="151"/>
-      <c r="K127" s="151"/>
-      <c r="L127" s="151"/>
+      <c r="C127" s="188"/>
+      <c r="D127" s="188"/>
+      <c r="E127" s="188"/>
+      <c r="F127" s="188"/>
+      <c r="G127" s="188"/>
+      <c r="H127" s="188"/>
+      <c r="I127" s="188"/>
+      <c r="J127" s="188"/>
+      <c r="K127" s="188"/>
+      <c r="L127" s="188"/>
     </row>
     <row r="128" spans="1:12">
-      <c r="B128" s="141" t="s">
+      <c r="B128" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="141"/>
-      <c r="D128" s="141" t="s">
+      <c r="C128" s="144"/>
+      <c r="D128" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="141" t="s">
+      <c r="E128" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="F128" s="141"/>
-      <c r="G128" s="141"/>
-      <c r="H128" s="136" t="s">
+      <c r="F128" s="144"/>
+      <c r="G128" s="144"/>
+      <c r="H128" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="I128" s="136" t="s">
+      <c r="I128" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="J128" s="136" t="s">
+      <c r="J128" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="K128" s="136" t="s">
+      <c r="K128" s="143" t="s">
         <v>263</v>
       </c>
-      <c r="L128" s="136"/>
+      <c r="L128" s="143"/>
     </row>
     <row r="129" spans="2:20">
-      <c r="B129" s="141"/>
-      <c r="C129" s="141"/>
-      <c r="D129" s="141"/>
+      <c r="B129" s="144"/>
+      <c r="C129" s="144"/>
+      <c r="D129" s="144"/>
       <c r="E129" s="61" t="s">
         <v>125</v>
       </c>
@@ -8490,11 +8559,11 @@
       <c r="G129" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H129" s="136"/>
-      <c r="I129" s="136"/>
-      <c r="J129" s="136"/>
-      <c r="K129" s="136"/>
-      <c r="L129" s="136"/>
+      <c r="H129" s="143"/>
+      <c r="I129" s="143"/>
+      <c r="J129" s="143"/>
+      <c r="K129" s="143"/>
+      <c r="L129" s="143"/>
     </row>
     <row r="130" spans="2:20">
       <c r="B130" s="2" t="s">
@@ -8545,19 +8614,19 @@
       </c>
       <c r="G131" s="2">
         <f ca="1">'Demanda Dinamica'!$O$13/2</f>
-        <v>1128</v>
+        <v>1905.5</v>
       </c>
       <c r="H131" s="77">
         <f ca="1">C125-(C125/4)</f>
-        <v>47858.158244680853</v>
+        <v>28330.623196011551</v>
       </c>
       <c r="I131" s="77">
         <f ca="1">D125-(D125/4)</f>
-        <v>46212.915272727274</v>
+        <v>33521.971072684653</v>
       </c>
       <c r="J131" s="77">
         <f ca="1">E125-(E125/4)</f>
-        <v>24569.444673918199</v>
+        <v>30409.25013198789</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -8580,19 +8649,19 @@
       </c>
       <c r="G132" s="2">
         <f ca="1">'Demanda Dinamica'!$O$13/2</f>
-        <v>1128</v>
+        <v>1905.5</v>
       </c>
       <c r="H132" s="77">
         <f ca="1">C125</f>
-        <v>63810.877659574471</v>
+        <v>37774.164261348735</v>
       </c>
       <c r="I132" s="77">
         <f ca="1">D125</f>
-        <v>61617.22036363637</v>
+        <v>44695.9614302462</v>
       </c>
       <c r="J132" s="77">
         <f ca="1">E125</f>
-        <v>32759.259565224263</v>
+        <v>40545.66684265052</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
@@ -8604,24 +8673,24 @@
       </c>
     </row>
     <row r="135" spans="2:20">
-      <c r="B135" s="151" t="s">
+      <c r="B135" s="188" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="151"/>
-      <c r="D135" s="151"/>
-      <c r="E135" s="151"/>
-      <c r="F135" s="151"/>
-      <c r="G135" s="151"/>
-      <c r="H135" s="151"/>
-      <c r="I135" s="151"/>
-      <c r="J135" s="151"/>
-      <c r="K135" s="151"/>
-      <c r="L135" s="151"/>
-      <c r="M135" s="151"/>
-      <c r="N135" s="151"/>
-      <c r="O135" s="151"/>
-      <c r="P135" s="151"/>
-      <c r="Q135" s="151"/>
+      <c r="C135" s="188"/>
+      <c r="D135" s="188"/>
+      <c r="E135" s="188"/>
+      <c r="F135" s="188"/>
+      <c r="G135" s="188"/>
+      <c r="H135" s="188"/>
+      <c r="I135" s="188"/>
+      <c r="J135" s="188"/>
+      <c r="K135" s="188"/>
+      <c r="L135" s="188"/>
+      <c r="M135" s="188"/>
+      <c r="N135" s="188"/>
+      <c r="O135" s="188"/>
+      <c r="P135" s="188"/>
+      <c r="Q135" s="188"/>
     </row>
     <row r="136" spans="2:20">
       <c r="B136" s="2" t="s">
@@ -8679,63 +8748,63 @@
       </c>
       <c r="C137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!C13/2)</f>
-        <v>6341205.9674202129</v>
+        <v>3640485.0806874842</v>
       </c>
       <c r="D137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!D13/2)</f>
-        <v>3493645.5518617025</v>
+        <v>1742333.3265547103</v>
       </c>
       <c r="E137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!E13/2)</f>
-        <v>4929390.2992021283</v>
+        <v>4433742.5301758079</v>
       </c>
       <c r="F137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!F13/2)</f>
-        <v>10193787.706117021</v>
+        <v>4306254.7257937556</v>
       </c>
       <c r="G137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!G13/2)</f>
-        <v>5838695.3058510637</v>
+        <v>4221262.8562057214</v>
       </c>
       <c r="H137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!H13/2)</f>
-        <v>1459673.8264627659</v>
+        <v>977406.50026239851</v>
       </c>
       <c r="I137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!I13/2)</f>
-        <v>5479759.1190159582</v>
+        <v>2209788.6092889011</v>
       </c>
       <c r="J137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!J13/2)</f>
-        <v>7441943.6070478726</v>
+        <v>7011829.2410128592</v>
       </c>
       <c r="K137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!K13/2)</f>
-        <v>10983447.317154257</v>
+        <v>7266804.8497769628</v>
       </c>
       <c r="L137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!L13/2)</f>
-        <v>7585518.0817819154</v>
+        <v>5241165.2912621368</v>
       </c>
       <c r="M137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!M13/2)</f>
-        <v>5647262.6728723403</v>
+        <v>3923791.3126475997</v>
       </c>
       <c r="N137" s="93">
         <f ca="1">$H$131*('Demanda Dinamica'!N13/2)</f>
-        <v>2799702.2573138298</v>
+        <v>1997308.9353188144</v>
       </c>
       <c r="O137" s="93">
         <f t="shared" ref="O137:O144" ca="1" si="21">SUM(C137:N137)</f>
-        <v>72194031.712101072</v>
+        <v>46972173.258987144</v>
       </c>
       <c r="P137" s="93">
         <f ca="1">O137+(O137*'Demanda Dinamica'!$S$6)</f>
-        <v>77969554.249069154</v>
+        <v>50729947.119706117</v>
       </c>
       <c r="Q137" s="93">
         <f ca="1">P137+(P137*'Demanda Dinamica'!$S$7)</f>
-        <v>89664987.386429533</v>
+        <v>58339439.187662035</v>
       </c>
     </row>
     <row r="138" spans="2:20" ht="15.75" thickBot="1">
@@ -8744,63 +8813,63 @@
       </c>
       <c r="C138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!C13/2)</f>
-        <v>8454941.2898936179</v>
+        <v>4853980.1075833123</v>
       </c>
       <c r="D138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!D13/2)</f>
-        <v>4658194.0691489363</v>
+        <v>2323111.1020729472</v>
       </c>
       <c r="E138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!E13/2)</f>
-        <v>6572520.3989361702</v>
+        <v>5911656.7069010772</v>
       </c>
       <c r="F138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!F13/2)</f>
-        <v>13591716.941489363</v>
+        <v>5741672.9677250078</v>
       </c>
       <c r="G138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!G13/2)</f>
-        <v>7784927.0744680855</v>
+        <v>5628350.4749409612</v>
       </c>
       <c r="H138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!H13/2)</f>
-        <v>1946231.7686170214</v>
+        <v>1303208.6670165313</v>
       </c>
       <c r="I138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!I13/2)</f>
-        <v>7306345.4920212766</v>
+        <v>2946384.8123852015</v>
       </c>
       <c r="J138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!J13/2)</f>
-        <v>9922591.4760638308</v>
+        <v>9349105.6546838116</v>
       </c>
       <c r="K138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!K13/2)</f>
-        <v>14644596.42287234</v>
+        <v>9689073.1330359504</v>
       </c>
       <c r="L138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!L13/2)</f>
-        <v>10114024.109042553</v>
+        <v>6988220.3883495163</v>
       </c>
       <c r="M138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!M13/2)</f>
-        <v>7529683.563829788</v>
+        <v>5231721.7501967996</v>
       </c>
       <c r="N138" s="93">
         <f ca="1">$H$132*('Demanda Dinamica'!N13/2)</f>
-        <v>3732936.3430851065</v>
+        <v>2663078.580425086</v>
       </c>
       <c r="O138" s="93">
         <f t="shared" ca="1" si="21"/>
-        <v>96258708.949468106</v>
+        <v>62629564.345316201</v>
       </c>
       <c r="P138" s="93">
         <f ca="1">O138+(O138*'Demanda Dinamica'!$S$6)</f>
-        <v>103959405.66542555</v>
+        <v>67639929.492941499</v>
       </c>
       <c r="Q138" s="93">
         <f ca="1">P138+(P138*'Demanda Dinamica'!$S$7)</f>
-        <v>119553316.51523939</v>
+        <v>77785918.916882724</v>
       </c>
     </row>
     <row r="139" spans="2:20" ht="15.75" thickBot="1">
@@ -8809,63 +8878,63 @@
       </c>
       <c r="C139" s="94">
         <f ca="1">SUM(C137:C138)</f>
-        <v>14796147.257313831</v>
+        <v>8494465.1882707961</v>
       </c>
       <c r="D139" s="94">
         <f t="shared" ref="D139:L139" ca="1" si="22">SUM(D137:D138)</f>
-        <v>8151839.6210106388</v>
+        <v>4065444.4286276577</v>
       </c>
       <c r="E139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>11501910.698138298</v>
+        <v>10345399.237076886</v>
       </c>
       <c r="F139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>23785504.647606384</v>
+        <v>10047927.693518763</v>
       </c>
       <c r="G139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>13623622.380319148</v>
+        <v>9849613.3311466835</v>
       </c>
       <c r="H139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>3405905.5950797871</v>
+        <v>2280615.1672789296</v>
       </c>
       <c r="I139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>12786104.611037236</v>
+        <v>5156173.4216741025</v>
       </c>
       <c r="J139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>17364535.083111703</v>
+        <v>16360934.89569667</v>
       </c>
       <c r="K139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>25628043.740026597</v>
+        <v>16955877.982812911</v>
       </c>
       <c r="L139" s="94">
         <f t="shared" ca="1" si="22"/>
-        <v>17699542.190824468</v>
+        <v>12229385.679611653</v>
       </c>
       <c r="M139" s="94">
         <f t="shared" ref="M139" ca="1" si="23">SUM(M137:M138)</f>
-        <v>13176946.236702129</v>
+        <v>9155513.0628443994</v>
       </c>
       <c r="N139" s="94">
         <f t="shared" ref="N139" ca="1" si="24">SUM(N137:N138)</f>
-        <v>6532638.6003989363</v>
+        <v>4660387.5157439001</v>
       </c>
       <c r="O139" s="94">
         <f t="shared" ca="1" si="21"/>
-        <v>168452740.66156915</v>
+        <v>109601737.60430335</v>
       </c>
       <c r="P139" s="94">
         <f ca="1">O139+(O139*'Demanda Dinamica'!$S$6)</f>
-        <v>181928959.91449469</v>
+        <v>118369876.61264761</v>
       </c>
       <c r="Q139" s="94">
         <f ca="1">P139+(P139*'Demanda Dinamica'!$S$7)</f>
-        <v>209218303.90166891</v>
+        <v>136125358.10454476</v>
       </c>
       <c r="S139" s="91" t="s">
         <v>271</v>
@@ -8880,63 +8949,63 @@
       </c>
       <c r="C140" s="93">
         <f ca="1">C139*0.19</f>
-        <v>2811267.9788896278</v>
+        <v>1613948.3857714513</v>
       </c>
       <c r="D140" s="93">
         <f t="shared" ref="D140:N140" ca="1" si="25">D139*0.19</f>
-        <v>1548849.5279920213</v>
+        <v>772434.44143925502</v>
       </c>
       <c r="E140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>2185363.0326462765</v>
+        <v>1965625.8550446085</v>
       </c>
       <c r="F140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>4519245.8830452133</v>
+        <v>1909106.261768565</v>
       </c>
       <c r="G140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>2588488.2522606384</v>
+        <v>1871426.53291787</v>
       </c>
       <c r="H140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>647122.0630651596</v>
+        <v>433316.88178299664</v>
       </c>
       <c r="I140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>2429359.8760970747</v>
+        <v>979672.95011807955</v>
       </c>
       <c r="J140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>3299261.6657912238</v>
+        <v>3108577.6301823673</v>
       </c>
       <c r="K140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>4869328.3106050538</v>
+        <v>3221616.8167344532</v>
       </c>
       <c r="L140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>3362913.016256649</v>
+        <v>2323583.2791262143</v>
       </c>
       <c r="M140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>2503619.7849734044</v>
+        <v>1739547.4819404359</v>
       </c>
       <c r="N140" s="93">
         <f t="shared" ca="1" si="25"/>
-        <v>1241201.3340757978</v>
+        <v>885473.62799134105</v>
       </c>
       <c r="O140" s="93">
         <f t="shared" ca="1" si="21"/>
-        <v>32006020.72569814</v>
+        <v>20824330.144817639</v>
       </c>
       <c r="P140" s="93">
         <f ca="1">O140+(O140*'Demanda Dinamica'!$S$6)</f>
-        <v>34566502.383753993</v>
+        <v>22490276.556403048</v>
       </c>
       <c r="Q140" s="93">
         <f ca="1">P140+(P140*'Demanda Dinamica'!$S$7)</f>
-        <v>39751477.741317093</v>
+        <v>25863818.039863504</v>
       </c>
     </row>
     <row r="141" spans="2:20">
@@ -8945,63 +9014,63 @@
       </c>
       <c r="C141" s="93">
         <f ca="1">C140*0.15</f>
-        <v>421690.19683344418</v>
+        <v>242092.25786571769</v>
       </c>
       <c r="D141" s="93">
         <f t="shared" ref="D141:J141" ca="1" si="26">D140*0.15</f>
-        <v>232327.42919880318</v>
+        <v>115865.16621588825</v>
       </c>
       <c r="E141" s="93">
         <f t="shared" ca="1" si="26"/>
-        <v>327804.45489694149</v>
+        <v>294843.87825669127</v>
       </c>
       <c r="F141" s="93">
         <f t="shared" ca="1" si="26"/>
-        <v>677886.88245678192</v>
+        <v>286365.93926528475</v>
       </c>
       <c r="G141" s="93">
         <f t="shared" ca="1" si="26"/>
-        <v>388273.23783909576</v>
+        <v>280713.97993768047</v>
       </c>
       <c r="H141" s="93">
         <f t="shared" ca="1" si="26"/>
-        <v>97068.30945977394</v>
+        <v>64997.532267449496</v>
       </c>
       <c r="I141" s="93">
         <f t="shared" ca="1" si="26"/>
-        <v>364403.98141456122</v>
+        <v>146950.94251771193</v>
       </c>
       <c r="J141" s="93">
         <f t="shared" ca="1" si="26"/>
-        <v>494889.24986868352</v>
+        <v>466286.64452735509</v>
       </c>
       <c r="K141" s="93">
         <f t="shared" ref="K141" ca="1" si="27">K140*0.15</f>
-        <v>730399.24659075809</v>
+        <v>483242.52251016797</v>
       </c>
       <c r="L141" s="93">
         <f t="shared" ref="L141" ca="1" si="28">L140*0.15</f>
-        <v>504436.95243849733</v>
+        <v>348537.49186893215</v>
       </c>
       <c r="M141" s="93">
         <f t="shared" ref="M141" ca="1" si="29">M140*0.15</f>
-        <v>375542.96774601063</v>
+        <v>260932.12229106537</v>
       </c>
       <c r="N141" s="93">
         <f t="shared" ref="N141" ca="1" si="30">N140*0.15</f>
-        <v>186180.20011136966</v>
+        <v>132821.04419870116</v>
       </c>
       <c r="O141" s="93">
         <f t="shared" ca="1" si="21"/>
-        <v>4800903.1088547213</v>
+        <v>3123649.521722646</v>
       </c>
       <c r="P141" s="93">
         <f ca="1">O141+(O141*'Demanda Dinamica'!$S$6)</f>
-        <v>5184975.3575630989</v>
+        <v>3373541.4834604575</v>
       </c>
       <c r="Q141" s="93">
         <f ca="1">P141+(P141*'Demanda Dinamica'!$S$7)</f>
-        <v>5962721.6611975636</v>
+        <v>3879572.705979526</v>
       </c>
     </row>
     <row r="142" spans="2:20">
@@ -9010,63 +9079,63 @@
       </c>
       <c r="C142" s="93">
         <f ca="1">C139+C140-C141</f>
-        <v>17185725.039370015</v>
+        <v>9866321.31617653</v>
       </c>
       <c r="D142" s="93">
         <f t="shared" ref="D142:N142" ca="1" si="31">D139+D140-D141</f>
-        <v>9468361.7198038567</v>
+        <v>4722013.7038510246</v>
       </c>
       <c r="E142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>13359469.275887633</v>
+        <v>12016181.213864803</v>
       </c>
       <c r="F142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>27626863.648194816</v>
+        <v>11670668.016022043</v>
       </c>
       <c r="G142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>15823837.394740691</v>
+        <v>11440325.884126874</v>
       </c>
       <c r="H142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>3955959.3486851729</v>
+        <v>2648934.5167944767</v>
       </c>
       <c r="I142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>14851060.505719749</v>
+        <v>5988895.4292744705</v>
       </c>
       <c r="J142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>20168907.499034245</v>
+        <v>19003225.881351683</v>
       </c>
       <c r="K142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>29766972.80404089</v>
+        <v>19694252.277037196</v>
       </c>
       <c r="L142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>20558018.254642621</v>
+        <v>14204431.466868935</v>
       </c>
       <c r="M142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>15305023.053929524</v>
+        <v>10634128.422493769</v>
       </c>
       <c r="N142" s="93">
         <f t="shared" ca="1" si="31"/>
-        <v>7587659.734363365</v>
+        <v>5413040.09953654</v>
       </c>
       <c r="O142" s="93">
         <f t="shared" ca="1" si="21"/>
-        <v>195657858.27841261</v>
+        <v>127302418.22739835</v>
       </c>
       <c r="P142" s="93">
         <f ca="1">O142+(O142*'Demanda Dinamica'!$S$6)</f>
-        <v>211310486.94068563</v>
+        <v>137486611.68559021</v>
       </c>
       <c r="Q142" s="93">
         <f ca="1">P142+(P142*'Demanda Dinamica'!$S$7)</f>
-        <v>243007059.98178846</v>
+        <v>158109603.43842873</v>
       </c>
     </row>
     <row r="143" spans="2:20">
@@ -9075,63 +9144,63 @@
       </c>
       <c r="C143" s="93">
         <f ca="1">(C138+(C138*0.19))-(C138*0.19*0.15)</f>
-        <v>9820414.3082114365</v>
+        <v>5637897.8949580174</v>
       </c>
       <c r="D143" s="93">
         <f t="shared" ref="D143:N143" ca="1" si="32">(D138+(D138*0.19))-(D138*0.19*0.15)</f>
-        <v>5410492.4113164898</v>
+        <v>2698293.545057728</v>
       </c>
       <c r="E143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>7633982.4433643613</v>
+        <v>6866389.2650656011</v>
       </c>
       <c r="F143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>15786779.227539897</v>
+        <v>6668953.1520125968</v>
       </c>
       <c r="G143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>9042192.7969946824</v>
+        <v>6537329.0766439261</v>
       </c>
       <c r="H143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>2260548.1992486706</v>
+        <v>1513676.8667397012</v>
       </c>
       <c r="I143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>8486320.2889827117</v>
+        <v>3422225.9595854115</v>
       </c>
       <c r="J143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>11525089.999448139</v>
+        <v>10858986.217915248</v>
       </c>
       <c r="K143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>17009698.745166223</v>
+        <v>11253858.444021255</v>
       </c>
       <c r="L143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>11747439.002652926</v>
+        <v>8116817.9810679639</v>
       </c>
       <c r="M143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>8745727.4593882989</v>
+        <v>6076644.8128535831</v>
       </c>
       <c r="N143" s="93">
         <f t="shared" ca="1" si="32"/>
-        <v>4335805.5624933513</v>
+        <v>3093165.7711637374</v>
       </c>
       <c r="O143" s="93">
         <f t="shared" ca="1" si="21"/>
-        <v>111804490.4448072</v>
+        <v>72744238.987084761</v>
       </c>
       <c r="P143" s="93">
         <f ca="1">O143+(O143*'Demanda Dinamica'!$S$6)</f>
-        <v>120748849.68039177</v>
+        <v>78563778.106051534</v>
       </c>
       <c r="Q143" s="93">
         <f ca="1">P143+(P143*'Demanda Dinamica'!$S$7)</f>
-        <v>138861177.13245055</v>
+        <v>90348344.821959257</v>
       </c>
     </row>
     <row r="144" spans="2:20">
@@ -9140,63 +9209,63 @@
       </c>
       <c r="C144" s="93">
         <f ca="1">(C137+(C137*0.19))-(C137*0.19*0.15)</f>
-        <v>7365310.7311585769</v>
+        <v>4228423.4212185126</v>
       </c>
       <c r="D144" s="93">
         <f t="shared" ref="D144:N144" ca="1" si="33">(D137+(D137*0.19))-(D137*0.19*0.15)</f>
-        <v>4057869.3084873674</v>
+        <v>2023720.158793296</v>
       </c>
       <c r="E144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>5725486.8325232724</v>
+        <v>5149791.9487992013</v>
       </c>
       <c r="F144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>11840084.420654919</v>
+        <v>5001714.8640094465</v>
       </c>
       <c r="G144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>6781644.5977460099</v>
+        <v>4902996.8074829448</v>
       </c>
       <c r="H144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>1695411.1494365025</v>
+        <v>1135257.6500547759</v>
       </c>
       <c r="I144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>6364740.2167370347</v>
+        <v>2566669.4696890591</v>
       </c>
       <c r="J144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>8643817.4995861053</v>
+        <v>8144239.6634364361</v>
       </c>
       <c r="K144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>12757274.058874669</v>
+        <v>8440393.8330159411</v>
       </c>
       <c r="L144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>8810579.2519896962</v>
+        <v>6087613.4858009722</v>
       </c>
       <c r="M144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>6559295.5945412237</v>
+        <v>4557483.6096401876</v>
       </c>
       <c r="N144" s="93">
         <f t="shared" ca="1" si="33"/>
-        <v>3251854.1718700132</v>
+        <v>2319874.3283728031</v>
       </c>
       <c r="O144" s="93">
         <f t="shared" ca="1" si="21"/>
-        <v>83853367.833605379</v>
+        <v>54558179.240313575</v>
       </c>
       <c r="P144" s="93">
         <f ca="1">O144+(O144*'Demanda Dinamica'!$S$6)</f>
-        <v>90561637.260293812</v>
+        <v>58922833.579538658</v>
       </c>
       <c r="Q144" s="93">
         <f ca="1">P144+(P144*'Demanda Dinamica'!$S$7)</f>
-        <v>104145882.84933788</v>
+        <v>67761258.616469458</v>
       </c>
     </row>
     <row r="145" spans="2:17">
@@ -9205,63 +9274,63 @@
       </c>
       <c r="C145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!C13/2</f>
-        <v>6341205.9674202129</v>
+        <v>3640485.0806874842</v>
       </c>
       <c r="D145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!D13/2</f>
-        <v>3493645.5518617025</v>
+        <v>1742333.3265547103</v>
       </c>
       <c r="E145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!E13/2</f>
-        <v>4929390.2992021283</v>
+        <v>4433742.5301758079</v>
       </c>
       <c r="F145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!F13/2</f>
-        <v>10193787.706117021</v>
+        <v>4306254.7257937556</v>
       </c>
       <c r="G145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!G13/2</f>
-        <v>5838695.3058510637</v>
+        <v>4221262.8562057214</v>
       </c>
       <c r="H145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!H13/2</f>
-        <v>1459673.8264627659</v>
+        <v>977406.50026239851</v>
       </c>
       <c r="I145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!I13/2</f>
-        <v>5479759.1190159582</v>
+        <v>2209788.6092889011</v>
       </c>
       <c r="J145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!J13/2</f>
-        <v>7441943.6070478726</v>
+        <v>7011829.2410128592</v>
       </c>
       <c r="K145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!K13/2</f>
-        <v>10983447.317154257</v>
+        <v>7266804.8497769628</v>
       </c>
       <c r="L145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!L13/2</f>
-        <v>7585518.0817819154</v>
+        <v>5241165.2912621368</v>
       </c>
       <c r="M145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!M13/2</f>
-        <v>5647262.6728723403</v>
+        <v>3923791.3126475997</v>
       </c>
       <c r="N145" s="93">
         <f ca="1">$H$131*'Demanda Dinamica'!N13/2</f>
-        <v>2799702.2573138298</v>
+        <v>1997308.9353188144</v>
       </c>
       <c r="O145" s="93">
         <f t="shared" ref="O145:O147" ca="1" si="34">SUM(C145:N145)</f>
-        <v>72194031.712101072</v>
+        <v>46972173.258987144</v>
       </c>
       <c r="P145" s="93">
         <f ca="1">O145+(O145*'Demanda Dinamica'!$S$6)</f>
-        <v>77969554.249069154</v>
+        <v>50729947.119706117</v>
       </c>
       <c r="Q145" s="93">
         <f ca="1">P145+(P145*'Demanda Dinamica'!$S$7)</f>
-        <v>89664987.386429533</v>
+        <v>58339439.187662035</v>
       </c>
     </row>
     <row r="146" spans="2:17">
@@ -9270,63 +9339,63 @@
       </c>
       <c r="C146" s="93">
         <f ca="1">C143+C144</f>
-        <v>17185725.039370015</v>
+        <v>9866321.31617653</v>
       </c>
       <c r="D146" s="93">
         <f t="shared" ref="D146:M146" ca="1" si="35">D143+D144</f>
-        <v>9468361.7198038567</v>
+        <v>4722013.7038510237</v>
       </c>
       <c r="E146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>13359469.275887635</v>
+        <v>12016181.213864803</v>
       </c>
       <c r="F146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>27626863.648194816</v>
+        <v>11670668.016022043</v>
       </c>
       <c r="G146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>15823837.394740693</v>
+        <v>11440325.884126872</v>
       </c>
       <c r="H146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>3955959.3486851733</v>
+        <v>2648934.5167944771</v>
       </c>
       <c r="I146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>14851060.505719747</v>
+        <v>5988895.4292744705</v>
       </c>
       <c r="J146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>20168907.499034245</v>
+        <v>19003225.881351683</v>
       </c>
       <c r="K146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>29766972.804040894</v>
+        <v>19694252.277037196</v>
       </c>
       <c r="L146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>20558018.254642621</v>
+        <v>14204431.466868937</v>
       </c>
       <c r="M146" s="93">
         <f t="shared" ca="1" si="35"/>
-        <v>15305023.053929523</v>
+        <v>10634128.422493771</v>
       </c>
       <c r="N146" s="93">
         <f ca="1">N143+N144</f>
-        <v>7587659.7343633641</v>
+        <v>5413040.09953654</v>
       </c>
       <c r="O146" s="93">
         <f t="shared" ca="1" si="34"/>
-        <v>195657858.27841258</v>
+        <v>127302418.22739835</v>
       </c>
       <c r="P146" s="93">
         <f ca="1">O146+(O146*'Demanda Dinamica'!$S$6)</f>
-        <v>211310486.9406856</v>
+        <v>137486611.68559021</v>
       </c>
       <c r="Q146" s="93">
         <f ca="1">P146+(P146*'Demanda Dinamica'!$S$7)</f>
-        <v>243007059.98178843</v>
+        <v>158109603.43842873</v>
       </c>
     </row>
     <row r="147" spans="2:17">
@@ -9335,79 +9404,79 @@
       </c>
       <c r="C147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!C13/2)</f>
-        <v>6341205.9674202129</v>
+        <v>3640485.0806874842</v>
       </c>
       <c r="D147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!D13/2)</f>
-        <v>3493645.5518617025</v>
+        <v>1742333.3265547103</v>
       </c>
       <c r="E147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!E13/2)</f>
-        <v>4929390.2992021283</v>
+        <v>4433742.5301758079</v>
       </c>
       <c r="F147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!F13/2)</f>
-        <v>10193787.706117021</v>
+        <v>4306254.7257937556</v>
       </c>
       <c r="G147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!G13/2)</f>
-        <v>5838695.3058510637</v>
+        <v>4221262.8562057214</v>
       </c>
       <c r="H147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!H13/2)</f>
-        <v>1459673.8264627659</v>
+        <v>977406.50026239851</v>
       </c>
       <c r="I147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!I13/2)</f>
-        <v>5479759.1190159582</v>
+        <v>2209788.6092889011</v>
       </c>
       <c r="J147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!J13/2)</f>
-        <v>7441943.6070478726</v>
+        <v>7011829.2410128592</v>
       </c>
       <c r="K147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!K13/2)</f>
-        <v>10983447.317154257</v>
+        <v>7266804.8497769628</v>
       </c>
       <c r="L147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!L13/2)</f>
-        <v>7585518.0817819154</v>
+        <v>5241165.2912621368</v>
       </c>
       <c r="M147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!M13/2)</f>
-        <v>5647262.6728723403</v>
+        <v>3923791.3126475997</v>
       </c>
       <c r="N147" s="40">
         <f ca="1">$H$131*('Demanda Dinamica'!N13/2)</f>
-        <v>2799702.2573138298</v>
+        <v>1997308.9353188144</v>
       </c>
       <c r="O147" s="93">
         <f t="shared" ca="1" si="34"/>
-        <v>72194031.712101072</v>
+        <v>46972173.258987144</v>
       </c>
       <c r="P147" s="93">
         <f ca="1">O147+(O147*'Demanda Dinamica'!$S$6)</f>
-        <v>77969554.249069154</v>
+        <v>50729947.119706117</v>
       </c>
       <c r="Q147" s="93">
         <f ca="1">P147+(P147*'Demanda Dinamica'!$S$7)</f>
-        <v>89664987.386429533</v>
+        <v>58339439.187662035</v>
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" s="149" t="s">
+      <c r="B149" s="189" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="149"/>
-      <c r="D149" s="149"/>
-      <c r="E149" s="149"/>
-      <c r="G149" s="150" t="s">
+      <c r="C149" s="189"/>
+      <c r="D149" s="189"/>
+      <c r="E149" s="189"/>
+      <c r="G149" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="150"/>
-      <c r="I149" s="150"/>
-      <c r="J149" s="150"/>
-      <c r="K149" s="150"/>
+      <c r="H149" s="190"/>
+      <c r="I149" s="190"/>
+      <c r="J149" s="190"/>
+      <c r="K149" s="190"/>
     </row>
     <row r="150" spans="2:17">
       <c r="B150" s="22" t="s">
@@ -9456,23 +9525,23 @@
       </c>
       <c r="G151" s="97">
         <f ca="1">O139</f>
-        <v>168452740.66156915</v>
+        <v>109601737.60430335</v>
       </c>
       <c r="H151" s="98">
         <f ca="1">C124*'Demanda Dinamica'!O13</f>
-        <v>63981040</v>
+        <v>63981040.000000007</v>
       </c>
       <c r="I151" s="98">
         <f ca="1">G151-H151-J151-K151</f>
-        <v>87626426.595412225</v>
+        <v>34660523.843873002</v>
       </c>
       <c r="J151" s="98">
         <f ca="1">G151*0.05</f>
-        <v>8422637.0330784582</v>
+        <v>5480086.880215168</v>
       </c>
       <c r="K151" s="98">
         <f ca="1">J151</f>
-        <v>8422637.0330784582</v>
+        <v>5480086.880215168</v>
       </c>
     </row>
     <row r="152" spans="2:17" ht="30">
@@ -9481,15 +9550,15 @@
       </c>
       <c r="C152" s="99">
         <f ca="1">O139*0.05</f>
-        <v>8422637.0330784582</v>
+        <v>5480086.880215168</v>
       </c>
       <c r="D152" s="99">
         <f t="shared" ref="D152:E152" ca="1" si="36">P139*0.05</f>
-        <v>9096447.9957247358</v>
+        <v>5918493.8306323811</v>
       </c>
       <c r="E152" s="99">
         <f t="shared" ca="1" si="36"/>
-        <v>10460915.195083447</v>
+        <v>6806267.9052272383</v>
       </c>
     </row>
     <row r="153" spans="2:17" ht="30">
@@ -9498,15 +9567,15 @@
       </c>
       <c r="C153" s="99">
         <f ca="1">C152</f>
-        <v>8422637.0330784582</v>
+        <v>5480086.880215168</v>
       </c>
       <c r="D153" s="99">
         <f t="shared" ref="D153:E153" ca="1" si="37">D152</f>
-        <v>9096447.9957247358</v>
+        <v>5918493.8306323811</v>
       </c>
       <c r="E153" s="99">
         <f t="shared" ca="1" si="37"/>
-        <v>10460915.195083447</v>
+        <v>6806267.9052272383</v>
       </c>
     </row>
     <row r="154" spans="2:17" ht="30">
@@ -9515,15 +9584,15 @@
       </c>
       <c r="C154" s="99">
         <f ca="1">(G151/1000)*11</f>
-        <v>1852980.1472772607</v>
+        <v>1205619.1136473368</v>
       </c>
       <c r="D154" s="99">
         <f ca="1">C154+(C154*'Demanda Dinamica'!$D$6)</f>
-        <v>1964158.9561138963</v>
+        <v>1277956.260466177</v>
       </c>
       <c r="E154" s="99">
         <f ca="1">D154+('Demanda Dinamica'!$D$7*D154)</f>
-        <v>2091829.2882612995</v>
+        <v>1361023.4173964786</v>
       </c>
     </row>
     <row r="155" spans="2:17" ht="30">
@@ -9532,15 +9601,15 @@
       </c>
       <c r="C155" s="99">
         <f ca="1">C154*0.15</f>
-        <v>277947.02209158911</v>
+        <v>180842.86704710053</v>
       </c>
       <c r="D155" s="99">
         <f t="shared" ref="D155:E155" ca="1" si="38">D154*0.15</f>
-        <v>294623.84341708443</v>
+        <v>191693.43906992654</v>
       </c>
       <c r="E155" s="99">
         <f t="shared" ca="1" si="38"/>
-        <v>313774.39323919493</v>
+        <v>204153.51260947177</v>
       </c>
     </row>
     <row r="156" spans="2:17">
@@ -9549,33 +9618,33 @@
       </c>
       <c r="C156" s="100">
         <f ca="1">SUM(C151:C155)</f>
-        <v>18976201.235525768</v>
+        <v>12346635.741124773</v>
       </c>
       <c r="D156" s="100">
         <f t="shared" ref="D156:E156" ca="1" si="39">SUM(D151:D155)</f>
-        <v>20451678.790980455</v>
+        <v>13306637.360800866</v>
       </c>
       <c r="E156" s="100">
         <f t="shared" ca="1" si="39"/>
-        <v>23327434.071667388</v>
+        <v>15177712.740460427</v>
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" s="144" t="s">
+      <c r="B158" s="172" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="144"/>
-      <c r="D158" s="144"/>
-      <c r="E158" s="144"/>
-      <c r="F158" s="144"/>
-      <c r="G158" s="144"/>
+      <c r="C158" s="172"/>
+      <c r="D158" s="172"/>
+      <c r="E158" s="172"/>
+      <c r="F158" s="172"/>
+      <c r="G158" s="172"/>
     </row>
     <row r="159" spans="2:17">
-      <c r="B159" s="148" t="s">
+      <c r="B159" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="148"/>
-      <c r="D159" s="148"/>
+      <c r="C159" s="165"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="63" t="s">
         <v>2</v>
       </c>
@@ -9587,13 +9656,13 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="138" t="s">
+      <c r="B160" s="146" t="s">
         <v>295</v>
       </c>
-      <c r="C160" s="141" t="s">
+      <c r="C160" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="D160" s="141"/>
+      <c r="D160" s="144"/>
       <c r="E160" s="2" t="s">
         <v>297</v>
       </c>
@@ -9607,11 +9676,11 @@
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="138"/>
-      <c r="C161" s="141" t="s">
+      <c r="B161" s="146"/>
+      <c r="C161" s="144" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="141"/>
+      <c r="D161" s="144"/>
       <c r="E161" s="2" t="s">
         <v>297</v>
       </c>
@@ -9623,11 +9692,11 @@
       </c>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="138"/>
-      <c r="C162" s="126" t="s">
+      <c r="B162" s="146"/>
+      <c r="C162" s="154" t="s">
         <v>299</v>
       </c>
-      <c r="D162" s="126"/>
+      <c r="D162" s="154"/>
       <c r="E162" s="77">
         <f>'Demanda Dinamica'!V43</f>
         <v>45334530</v>
@@ -9642,11 +9711,11 @@
       </c>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="138"/>
-      <c r="C163" s="141" t="s">
+      <c r="B163" s="146"/>
+      <c r="C163" s="144" t="s">
         <v>300</v>
       </c>
-      <c r="D163" s="141"/>
+      <c r="D163" s="144"/>
       <c r="E163" s="77">
         <f>'Demanda Dinamica'!V35</f>
         <v>2400000</v>
@@ -9661,11 +9730,11 @@
       </c>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="138"/>
-      <c r="C164" s="141" t="s">
+      <c r="B164" s="146"/>
+      <c r="C164" s="144" t="s">
         <v>301</v>
       </c>
-      <c r="D164" s="141"/>
+      <c r="D164" s="144"/>
       <c r="E164" s="77">
         <v>0</v>
       </c>
@@ -9677,11 +9746,11 @@
       </c>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="138"/>
-      <c r="C165" s="141" t="s">
+      <c r="B165" s="146"/>
+      <c r="C165" s="144" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="141"/>
+      <c r="D165" s="144"/>
       <c r="E165" s="77">
         <f>E106</f>
         <v>48480</v>
@@ -9696,11 +9765,11 @@
       </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="138"/>
-      <c r="C166" s="141" t="s">
+      <c r="B166" s="146"/>
+      <c r="C166" s="144" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="141"/>
+      <c r="D166" s="144"/>
       <c r="E166" s="77">
         <f>E107</f>
         <v>0</v>
@@ -9715,11 +9784,11 @@
       </c>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="138"/>
-      <c r="C167" s="141" t="s">
+      <c r="B167" s="146"/>
+      <c r="C167" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="D167" s="141"/>
+      <c r="D167" s="144"/>
       <c r="E167" s="77">
         <f t="shared" ref="E167:G168" si="42">E108</f>
         <v>120000</v>
@@ -9734,11 +9803,11 @@
       </c>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="138"/>
-      <c r="C168" s="141" t="s">
+      <c r="B168" s="146"/>
+      <c r="C168" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="D168" s="141"/>
+      <c r="D168" s="144"/>
       <c r="E168" s="77">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -9753,11 +9822,11 @@
       </c>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="138"/>
-      <c r="C169" s="141" t="s">
+      <c r="B169" s="146"/>
+      <c r="C169" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="D169" s="141"/>
+      <c r="D169" s="144"/>
       <c r="E169" s="77">
         <f>E110</f>
         <v>200000</v>
@@ -9772,11 +9841,11 @@
       </c>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="138"/>
-      <c r="C170" s="141" t="s">
+      <c r="B170" s="146"/>
+      <c r="C170" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="141"/>
+      <c r="D170" s="144"/>
       <c r="E170" s="77">
         <f>E111</f>
         <v>200000</v>
@@ -9791,11 +9860,11 @@
       </c>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="138"/>
-      <c r="C171" s="141" t="s">
+      <c r="B171" s="146"/>
+      <c r="C171" s="144" t="s">
         <v>319</v>
       </c>
-      <c r="D171" s="141"/>
+      <c r="D171" s="144"/>
       <c r="E171" s="77">
         <v>0</v>
       </c>
@@ -9807,11 +9876,11 @@
       </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="138"/>
-      <c r="C172" s="148" t="s">
+      <c r="B172" s="146"/>
+      <c r="C172" s="165" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="148"/>
+      <c r="D172" s="165"/>
       <c r="E172" s="82">
         <f>SUM(E162:E171)</f>
         <v>48303010</v>
@@ -9826,13 +9895,13 @@
       </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="148" t="s">
+      <c r="B173" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="C173" s="141" t="s">
+      <c r="C173" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="141"/>
+      <c r="D173" s="144"/>
       <c r="E173" s="77">
         <f>E64</f>
         <v>0</v>
@@ -9847,11 +9916,11 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="148"/>
-      <c r="C174" s="141" t="s">
+      <c r="B174" s="165"/>
+      <c r="C174" s="144" t="s">
         <v>309</v>
       </c>
-      <c r="D174" s="141"/>
+      <c r="D174" s="144"/>
       <c r="E174" s="77">
         <f>0</f>
         <v>0</v>
@@ -9866,11 +9935,11 @@
       </c>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="148"/>
-      <c r="C175" s="141" t="s">
+      <c r="B175" s="165"/>
+      <c r="C175" s="144" t="s">
         <v>310</v>
       </c>
-      <c r="D175" s="141"/>
+      <c r="D175" s="144"/>
       <c r="E175" s="77">
         <v>0</v>
       </c>
@@ -9882,11 +9951,11 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="148"/>
-      <c r="C176" s="141" t="s">
+      <c r="B176" s="165"/>
+      <c r="C176" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="D176" s="141"/>
+      <c r="D176" s="144"/>
       <c r="E176" s="77">
         <v>0</v>
       </c>
@@ -9898,11 +9967,11 @@
       </c>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="148"/>
-      <c r="C177" s="141" t="s">
+      <c r="B177" s="165"/>
+      <c r="C177" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="D177" s="141"/>
+      <c r="D177" s="144"/>
       <c r="E177" s="77">
         <v>0</v>
       </c>
@@ -9914,117 +9983,117 @@
       </c>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="148"/>
-      <c r="C178" s="141" t="s">
+      <c r="B178" s="165"/>
+      <c r="C178" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="D178" s="141"/>
+      <c r="D178" s="144"/>
       <c r="E178" s="77">
         <f ca="1">C152</f>
-        <v>8422637.0330784582</v>
+        <v>5480086.880215168</v>
       </c>
       <c r="F178" s="77">
         <f t="shared" ref="F178:G178" ca="1" si="46">D152</f>
-        <v>9096447.9957247358</v>
+        <v>5918493.8306323811</v>
       </c>
       <c r="G178" s="77">
         <f t="shared" ca="1" si="46"/>
-        <v>10460915.195083447</v>
+        <v>6806267.9052272383</v>
       </c>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="148"/>
-      <c r="C179" s="141" t="s">
+      <c r="B179" s="165"/>
+      <c r="C179" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="141"/>
+      <c r="D179" s="144"/>
       <c r="E179" s="77">
         <f ca="1">C153</f>
-        <v>8422637.0330784582</v>
+        <v>5480086.880215168</v>
       </c>
       <c r="F179" s="77">
         <f t="shared" ref="F179:G181" ca="1" si="47">D153</f>
-        <v>9096447.9957247358</v>
+        <v>5918493.8306323811</v>
       </c>
       <c r="G179" s="77">
         <f t="shared" ca="1" si="47"/>
-        <v>10460915.195083447</v>
+        <v>6806267.9052272383</v>
       </c>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="148"/>
-      <c r="C180" s="141" t="s">
+      <c r="B180" s="165"/>
+      <c r="C180" s="144" t="s">
         <v>314</v>
       </c>
-      <c r="D180" s="141"/>
+      <c r="D180" s="144"/>
       <c r="E180" s="77">
         <f t="shared" ref="E180:E181" ca="1" si="48">C154</f>
-        <v>1852980.1472772607</v>
+        <v>1205619.1136473368</v>
       </c>
       <c r="F180" s="77">
         <f t="shared" ca="1" si="47"/>
-        <v>1964158.9561138963</v>
+        <v>1277956.260466177</v>
       </c>
       <c r="G180" s="77">
         <f t="shared" ca="1" si="47"/>
-        <v>2091829.2882612995</v>
+        <v>1361023.4173964786</v>
       </c>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="148"/>
-      <c r="C181" s="141" t="s">
+      <c r="B181" s="165"/>
+      <c r="C181" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="141"/>
+      <c r="D181" s="144"/>
       <c r="E181" s="77">
         <f t="shared" ca="1" si="48"/>
-        <v>277947.02209158911</v>
+        <v>180842.86704710053</v>
       </c>
       <c r="F181" s="77">
         <f t="shared" ca="1" si="47"/>
-        <v>294623.84341708443</v>
+        <v>191693.43906992654</v>
       </c>
       <c r="G181" s="77">
         <f t="shared" ca="1" si="47"/>
-        <v>313774.39323919493</v>
+        <v>204153.51260947177</v>
       </c>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="148"/>
-      <c r="C182" s="148" t="s">
+      <c r="B182" s="165"/>
+      <c r="C182" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="D182" s="148"/>
+      <c r="D182" s="165"/>
       <c r="E182" s="82">
         <f ca="1">SUM(E173:E181)</f>
-        <v>18976201.235525768</v>
+        <v>12346635.741124773</v>
       </c>
       <c r="F182" s="82">
         <f t="shared" ref="F182:G182" ca="1" si="49">SUM(F173:F181)</f>
-        <v>20451678.790980455</v>
+        <v>13306637.360800866</v>
       </c>
       <c r="G182" s="82">
         <f t="shared" ca="1" si="49"/>
-        <v>23327434.071667388</v>
+        <v>15177712.740460427</v>
       </c>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="143" t="s">
+      <c r="B183" s="191" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="143"/>
-      <c r="D183" s="143"/>
+      <c r="C183" s="191"/>
+      <c r="D183" s="191"/>
       <c r="E183" s="101">
         <f ca="1">E172+E182</f>
-        <v>67279211.235525772</v>
+        <v>60649645.741124772</v>
       </c>
       <c r="F183" s="101">
         <f t="shared" ref="F183:G183" ca="1" si="50">F172+F182</f>
-        <v>71708869.390980452</v>
+        <v>64563827.960800871</v>
       </c>
       <c r="G183" s="101">
         <f t="shared" ca="1" si="50"/>
-        <v>77890342.060667396</v>
+        <v>69740620.729460433</v>
       </c>
     </row>
     <row r="184" spans="2:7">
@@ -10035,13 +10104,13 @@
       <c r="F184" s="67"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="144" t="s">
+      <c r="B185" s="172" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="144"/>
-      <c r="D185" s="144"/>
-      <c r="E185" s="144"/>
-      <c r="F185" s="144"/>
+      <c r="C185" s="172"/>
+      <c r="D185" s="172"/>
+      <c r="E185" s="172"/>
+      <c r="F185" s="172"/>
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="63" t="s">
@@ -10069,15 +10138,15 @@
       </c>
       <c r="D187" s="2">
         <f ca="1">'Demanda Dinamica'!O13</f>
-        <v>2256</v>
+        <v>3811</v>
       </c>
       <c r="E187" s="2">
         <f ca="1">'Demanda Dinamica'!P13</f>
-        <v>2475</v>
+        <v>3412</v>
       </c>
       <c r="F187" s="2">
         <f ca="1">'Demanda Dinamica'!Q13</f>
-        <v>4749</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="188" spans="2:7" ht="30">
@@ -10089,15 +10158,15 @@
       </c>
       <c r="D188" s="19">
         <f ca="1">C121/D187</f>
-        <v>28360.390070921985</v>
+        <v>16788.517449488325</v>
       </c>
       <c r="E188" s="19">
         <f t="shared" ref="E188:F188" ca="1" si="51">F75/E187</f>
-        <v>19501.657292929292</v>
+        <v>14146.131828839389</v>
       </c>
       <c r="F188" s="19">
         <f t="shared" ca="1" si="51"/>
-        <v>10211.470720151612</v>
+        <v>12638.591204065677</v>
       </c>
     </row>
     <row r="189" spans="2:7" ht="30">
@@ -10109,15 +10178,15 @@
       </c>
       <c r="D189" s="77">
         <f ca="1">E182/D187</f>
-        <v>8411.436717874898</v>
+        <v>3239.7364841576418</v>
       </c>
       <c r="E189" s="77">
         <f t="shared" ref="E189:F189" ca="1" si="52">F182/E187</f>
-        <v>8263.3045620123048</v>
+        <v>3899.9523331772762</v>
       </c>
       <c r="F189" s="77">
         <f t="shared" ca="1" si="52"/>
-        <v>4912.0728725347208</v>
+        <v>3955.6196873756653</v>
       </c>
     </row>
     <row r="190" spans="2:7" ht="30">
@@ -10129,15 +10198,15 @@
       </c>
       <c r="D190" s="77">
         <f ca="1">O139/D187</f>
-        <v>74668.768023745186</v>
+        <v>28759.311887773118</v>
       </c>
       <c r="E190" s="77">
         <f t="shared" ref="E190:F190" ca="1" si="53">P139/E187</f>
-        <v>73506.650470502907</v>
+        <v>34692.226439814658</v>
       </c>
       <c r="F190" s="77">
         <f t="shared" ca="1" si="53"/>
-        <v>44055.233502141273</v>
+        <v>35477.028434856598</v>
       </c>
     </row>
     <row r="191" spans="2:7" ht="30">
@@ -10149,15 +10218,15 @@
       </c>
       <c r="D191" s="77">
         <f ca="1">D190-D189</f>
-        <v>66257.331305870292</v>
+        <v>25519.575403615476</v>
       </c>
       <c r="E191" s="77">
         <f t="shared" ref="E191:F191" ca="1" si="54">E190-E189</f>
-        <v>65243.345908490606</v>
+        <v>30792.274106637382</v>
       </c>
       <c r="F191" s="77">
         <f t="shared" ca="1" si="54"/>
-        <v>39143.160629606551</v>
+        <v>31521.408747480935</v>
       </c>
     </row>
     <row r="192" spans="2:7" ht="30">
@@ -10169,36 +10238,36 @@
       </c>
       <c r="D192" s="2">
         <f ca="1">E172/D191</f>
-        <v>729.02136334187719</v>
+        <v>1892.7826672679159</v>
       </c>
       <c r="E192" s="2">
         <f ca="1">F172/E191</f>
-        <v>785.63093118940606</v>
+        <v>1664.6120524417954</v>
       </c>
       <c r="F192" s="2">
         <f ca="1">G172/F191</f>
-        <v>1393.9320972392425</v>
+        <v>1730.9793615540884</v>
       </c>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="145" t="s">
+      <c r="B194" s="173" t="s">
         <v>336</v>
       </c>
-      <c r="C194" s="145"/>
-      <c r="D194" s="145"/>
-      <c r="E194" s="145"/>
-      <c r="F194" s="145"/>
-      <c r="G194" s="145"/>
-      <c r="H194" s="145"/>
-      <c r="I194" s="145"/>
-      <c r="J194" s="145"/>
-      <c r="K194" s="145"/>
-      <c r="L194" s="145"/>
-      <c r="M194" s="145"/>
-      <c r="N194" s="145"/>
-      <c r="O194" s="145"/>
-      <c r="P194" s="145"/>
-      <c r="Q194" s="145"/>
+      <c r="C194" s="173"/>
+      <c r="D194" s="173"/>
+      <c r="E194" s="173"/>
+      <c r="F194" s="173"/>
+      <c r="G194" s="173"/>
+      <c r="H194" s="173"/>
+      <c r="I194" s="173"/>
+      <c r="J194" s="173"/>
+      <c r="K194" s="173"/>
+      <c r="L194" s="173"/>
+      <c r="M194" s="173"/>
+      <c r="N194" s="173"/>
+      <c r="O194" s="173"/>
+      <c r="P194" s="173"/>
+      <c r="Q194" s="173"/>
     </row>
     <row r="195" spans="2:17">
       <c r="B195" s="63" t="s">
@@ -10256,63 +10325,63 @@
       </c>
       <c r="C196" s="93">
         <f ca="1">C139</f>
-        <v>14796147.257313831</v>
+        <v>8494465.1882707961</v>
       </c>
       <c r="D196" s="93">
         <f t="shared" ref="D196:Q196" ca="1" si="55">D139</f>
-        <v>8151839.6210106388</v>
+        <v>4065444.4286276577</v>
       </c>
       <c r="E196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>11501910.698138298</v>
+        <v>10345399.237076886</v>
       </c>
       <c r="F196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>23785504.647606384</v>
+        <v>10047927.693518763</v>
       </c>
       <c r="G196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>13623622.380319148</v>
+        <v>9849613.3311466835</v>
       </c>
       <c r="H196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>3405905.5950797871</v>
+        <v>2280615.1672789296</v>
       </c>
       <c r="I196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>12786104.611037236</v>
+        <v>5156173.4216741025</v>
       </c>
       <c r="J196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>17364535.083111703</v>
+        <v>16360934.89569667</v>
       </c>
       <c r="K196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>25628043.740026597</v>
+        <v>16955877.982812911</v>
       </c>
       <c r="L196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>17699542.190824468</v>
+        <v>12229385.679611653</v>
       </c>
       <c r="M196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>13176946.236702129</v>
+        <v>9155513.0628443994</v>
       </c>
       <c r="N196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>6532638.6003989363</v>
+        <v>4660387.5157439001</v>
       </c>
       <c r="O196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>168452740.66156915</v>
+        <v>109601737.60430335</v>
       </c>
       <c r="P196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>181928959.91449469</v>
+        <v>118369876.61264761</v>
       </c>
       <c r="Q196" s="93">
         <f t="shared" ca="1" si="55"/>
-        <v>209218303.90166891</v>
+        <v>136125358.10454476</v>
       </c>
     </row>
     <row r="197" spans="2:17">
@@ -10321,63 +10390,63 @@
       </c>
       <c r="C197" s="77">
         <f ca="1">$E$183/12</f>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="D197" s="77">
         <f t="shared" ref="D197:N197" ca="1" si="56">$E$183/12</f>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="E197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="F197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="G197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="H197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="I197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="J197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="K197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="L197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="M197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="N197" s="77">
         <f t="shared" ca="1" si="56"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="O197" s="77">
         <f ca="1">E183</f>
-        <v>67279211.235525772</v>
+        <v>60649645.741124772</v>
       </c>
       <c r="P197" s="77">
         <f t="shared" ref="P197:Q197" ca="1" si="57">F183</f>
-        <v>71708869.390980452</v>
+        <v>64563827.960800871</v>
       </c>
       <c r="Q197" s="77">
         <f t="shared" ca="1" si="57"/>
-        <v>77890342.060667396</v>
+        <v>69740620.729460433</v>
       </c>
     </row>
     <row r="198" spans="2:17">
@@ -10386,73 +10455,73 @@
       </c>
       <c r="C198" s="77">
         <f ca="1">C196-C197</f>
-        <v>9189546.3210200164</v>
+        <v>3440328.0431770654</v>
       </c>
       <c r="D198" s="77">
         <f t="shared" ref="D198:Q198" ca="1" si="58">D196-D197</f>
-        <v>2545238.6847168244</v>
+        <v>-988692.71646607295</v>
       </c>
       <c r="E198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>5895309.7618444841</v>
+        <v>5291262.0919831553</v>
       </c>
       <c r="F198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>18178903.71131257</v>
+        <v>4993790.5484250328</v>
       </c>
       <c r="G198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>8017021.444025334</v>
+        <v>4795476.1860529529</v>
       </c>
       <c r="H198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>-2200695.3412140273</v>
+        <v>-2773521.977814801</v>
       </c>
       <c r="I198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>7179503.6747434214</v>
+        <v>102036.27658037189</v>
       </c>
       <c r="J198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>11757934.146817889</v>
+        <v>11306797.750602938</v>
       </c>
       <c r="K198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>20021442.803732783</v>
+        <v>11901740.83771918</v>
       </c>
       <c r="L198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>12092941.254530653</v>
+        <v>7175248.5345179224</v>
       </c>
       <c r="M198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>7570345.3004083149</v>
+        <v>4101375.9177506687</v>
       </c>
       <c r="N198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>926037.66410512198</v>
+        <v>-393749.62934983056</v>
       </c>
       <c r="O198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>101173529.42604338</v>
+        <v>48952091.863178574</v>
       </c>
       <c r="P198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>110220090.52351424</v>
+        <v>53806048.651846737</v>
       </c>
       <c r="Q198" s="77">
         <f t="shared" ca="1" si="58"/>
-        <v>131327961.84100151</v>
+        <v>66384737.375084326</v>
       </c>
     </row>
     <row r="200" spans="2:17">
-      <c r="B200" s="146" t="s">
+      <c r="B200" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="C200" s="146"/>
-      <c r="D200" s="146"/>
-      <c r="E200" s="146"/>
-      <c r="F200" s="146"/>
+      <c r="C200" s="192"/>
+      <c r="D200" s="192"/>
+      <c r="E200" s="192"/>
+      <c r="F200" s="192"/>
     </row>
     <row r="201" spans="2:17">
       <c r="B201" s="103" t="s">
@@ -10477,19 +10546,19 @@
       </c>
       <c r="C202" s="77">
         <f ca="1">C197</f>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="D202" s="77">
         <f t="shared" ref="D202:E202" ca="1" si="59">D197</f>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="E202" s="77">
         <f t="shared" ca="1" si="59"/>
-        <v>5606600.9362938143</v>
+        <v>5054137.1450937307</v>
       </c>
       <c r="F202" s="77">
         <f ca="1">SUM(C202:E202)</f>
-        <v>16819802.808881443</v>
+        <v>15162411.435281191</v>
       </c>
     </row>
     <row r="203" spans="2:17">
@@ -10498,30 +10567,30 @@
       </c>
       <c r="C203" s="77">
         <f ca="1">C198</f>
-        <v>9189546.3210200164</v>
+        <v>3440328.0431770654</v>
       </c>
       <c r="D203" s="77">
         <f ca="1">D198</f>
-        <v>2545238.6847168244</v>
+        <v>-988692.71646607295</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="77">
         <f ca="1">SUM(C203:E203)</f>
-        <v>11734785.005736841</v>
+        <v>2451635.3267109925</v>
       </c>
     </row>
     <row r="204" spans="2:17">
       <c r="F204" s="77">
         <f ca="1">SUM(F202:F203)</f>
-        <v>28554587.814618282</v>
+        <v>17614046.761992183</v>
       </c>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="147" t="s">
+      <c r="B205" s="193" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="147"/>
-      <c r="D205" s="147"/>
+      <c r="C205" s="193"/>
+      <c r="D205" s="193"/>
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="103" t="s">
@@ -10533,7 +10602,7 @@
       </c>
       <c r="D206" s="104">
         <f ca="1">C206/$C$209</f>
-        <v>0.14240985516142848</v>
+        <v>0.20985153609748547</v>
       </c>
     </row>
     <row r="207" spans="2:17">
@@ -10546,7 +10615,7 @@
       </c>
       <c r="D207" s="104">
         <f t="shared" ref="D207:D209" ca="1" si="60">C207/$C$209</f>
-        <v>1.8799980879396501E-2</v>
+        <v>2.7703173082176302E-2</v>
       </c>
     </row>
     <row r="208" spans="2:17">
@@ -10555,11 +10624,11 @@
       </c>
       <c r="C208" s="77">
         <f ca="1">F204</f>
-        <v>28554587.814618282</v>
+        <v>17614046.761992183</v>
       </c>
       <c r="D208" s="104">
         <f t="shared" ca="1" si="60"/>
-        <v>0.83879016395917505</v>
+        <v>0.76244529082033818</v>
       </c>
     </row>
     <row r="209" spans="2:4">
@@ -10568,7 +10637,7 @@
       </c>
       <c r="C209" s="18">
         <f ca="1">SUM(C206:C208)</f>
-        <v>34042587.814618282</v>
+        <v>23102046.761992183</v>
       </c>
       <c r="D209" s="104">
         <f t="shared" ca="1" si="60"/>
@@ -10577,50 +10646,59 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B194:Q194"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:B172"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="B127:L127"/>
+    <mergeCell ref="B135:Q135"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:C104"/>
@@ -10645,59 +10723,50 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:L129"/>
-    <mergeCell ref="B127:L127"/>
-    <mergeCell ref="B135:Q135"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B194:Q194"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B92:C92"/>
   </mergeCells>
   <conditionalFormatting sqref="C198:Q198">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -10716,7 +10785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V108"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
+    <sheetView topLeftCell="D124" workbookViewId="0">
       <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
@@ -10733,21 +10802,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="194" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="62" t="s">
         <v>2</v>
       </c>
@@ -10759,32 +10828,32 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="144" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="141"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="78">
         <f ca="1">'Presupuesto de Inversion'!O139</f>
-        <v>168452740.66156915</v>
+        <v>109601737.60430335</v>
       </c>
       <c r="F4" s="78">
         <f ca="1">'Presupuesto de Inversion'!P139</f>
-        <v>181928959.91449469</v>
+        <v>118369876.61264761</v>
       </c>
       <c r="G4" s="78">
         <f ca="1">'Presupuesto de Inversion'!Q139</f>
-        <v>209218303.90166891</v>
+        <v>136125358.10454476</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.5" customHeight="1">
-      <c r="B5" s="148"/>
-      <c r="C5" s="136" t="s">
+      <c r="B5" s="165"/>
+      <c r="C5" s="143" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="136"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="78">
         <v>0</v>
       </c>
@@ -10796,32 +10865,32 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B6" s="148"/>
-      <c r="C6" s="138" t="s">
+      <c r="B6" s="165"/>
+      <c r="C6" s="146" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="138"/>
+      <c r="D6" s="146"/>
       <c r="E6" s="105">
         <f ca="1">SUM(E4:E5)</f>
-        <v>168452740.66156915</v>
+        <v>109601737.60430335</v>
       </c>
       <c r="F6" s="105">
         <f t="shared" ref="F6:G6" ca="1" si="0">SUM(F4:F5)</f>
-        <v>181928959.91449469</v>
+        <v>118369876.61264761</v>
       </c>
       <c r="G6" s="105">
         <f t="shared" ca="1" si="0"/>
-        <v>209218303.90166891</v>
+        <v>136125358.10454476</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="165" t="s">
         <v>338</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="144" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="141"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="78">
         <f>'Presupuesto de Inversion'!E75</f>
         <v>45534530</v>
@@ -10836,11 +10905,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="148"/>
-      <c r="C8" s="126" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="154" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="78">
         <f>'Presupuesto de Inversion'!E115</f>
         <v>18446510</v>
@@ -10855,30 +10924,30 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="148"/>
-      <c r="C9" s="141" t="s">
+      <c r="B9" s="165"/>
+      <c r="C9" s="144" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="141"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="78">
         <f ca="1">'Presupuesto de Inversion'!C156</f>
-        <v>18976201.235525768</v>
+        <v>12346635.741124773</v>
       </c>
       <c r="F9" s="78">
         <f ca="1">'Presupuesto de Inversion'!D156</f>
-        <v>20451678.790980455</v>
+        <v>13306637.360800866</v>
       </c>
       <c r="G9" s="78">
         <f ca="1">'Presupuesto de Inversion'!E156</f>
-        <v>23327434.071667388</v>
+        <v>15177712.740460427</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B10" s="148"/>
-      <c r="C10" s="136" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="136"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="78">
         <v>0</v>
       </c>
@@ -10890,11 +10959,11 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="148"/>
-      <c r="C11" s="136" t="s">
+      <c r="B11" s="165"/>
+      <c r="C11" s="143" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="136"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="78">
         <v>0</v>
       </c>
@@ -10906,136 +10975,136 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="148"/>
-      <c r="C12" s="148" t="s">
+      <c r="B12" s="165"/>
+      <c r="C12" s="165" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="148"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="105">
         <f ca="1">SUM(E7:E11)</f>
-        <v>82957241.235525772</v>
+        <v>76327675.741124779</v>
       </c>
       <c r="F12" s="105">
         <f t="shared" ref="F12:G12" ca="1" si="1">SUM(F7:F11)</f>
-        <v>88230621.190980464</v>
+        <v>81085579.760800868</v>
       </c>
       <c r="G12" s="105">
         <f t="shared" ca="1" si="1"/>
-        <v>92471311.260667399</v>
+        <v>84321589.929460436</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="197" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="78">
         <f ca="1">E6-E12</f>
-        <v>85495499.426043376</v>
+        <v>33274061.863178566</v>
       </c>
       <c r="F13" s="78">
         <f t="shared" ref="F13:G13" ca="1" si="2">F6-F12</f>
-        <v>93698338.723514229</v>
+        <v>37284296.85184674</v>
       </c>
       <c r="G13" s="78">
         <f t="shared" ca="1" si="2"/>
-        <v>116746992.64100151</v>
+        <v>51803768.175084323</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="144" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
       <c r="E14" s="78">
         <f ca="1">(E13*0.25)</f>
-        <v>21373874.856510844</v>
+        <v>8318515.4657946415</v>
       </c>
       <c r="F14" s="78">
         <f t="shared" ref="F14:G14" ca="1" si="3">(F13*0.25)</f>
-        <v>23424584.680878557</v>
+        <v>9321074.2129616849</v>
       </c>
       <c r="G14" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>29186748.160250377</v>
+        <v>12950942.043771081</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="198" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="78">
         <f ca="1">E13*0.09</f>
-        <v>7694594.9483439038</v>
+        <v>2994665.5676860707</v>
       </c>
       <c r="F15" s="78">
         <f t="shared" ref="F15:G15" ca="1" si="4">F13*0.09</f>
-        <v>8432850.4851162806</v>
+        <v>3355586.7166662063</v>
       </c>
       <c r="G15" s="78">
         <f t="shared" ca="1" si="4"/>
-        <v>10507229.337690135</v>
+        <v>4662339.1357575888</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="29.25" customHeight="1">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="143" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
       <c r="E16" s="78">
         <f ca="1">E13-E14-E15</f>
-        <v>56427029.621188626</v>
+        <v>21960880.829697855</v>
       </c>
       <c r="F16" s="78">
         <f t="shared" ref="F16:G16" ca="1" si="5">F13-F14-F15</f>
-        <v>61840903.557519399</v>
+        <v>24607635.922218848</v>
       </c>
       <c r="G16" s="78">
         <f t="shared" ca="1" si="5"/>
-        <v>77053015.143060997</v>
+        <v>34190486.995555654</v>
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="144" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="78">
         <f ca="1">E16*0.1</f>
-        <v>5642702.9621188631</v>
+        <v>2196088.0829697857</v>
       </c>
       <c r="F17" s="78">
         <f t="shared" ref="F17:G17" ca="1" si="6">F16*0.1</f>
-        <v>6184090.35575194</v>
+        <v>2460763.592221885</v>
       </c>
       <c r="G17" s="78">
         <f t="shared" ca="1" si="6"/>
-        <v>7705301.5143061001</v>
+        <v>3419048.6995555656</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="32.25" customHeight="1">
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="195" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="106">
         <f ca="1">E16-E17</f>
-        <v>50784326.659069762</v>
+        <v>19764792.74672807</v>
       </c>
       <c r="F18" s="106">
         <f t="shared" ref="F18:G18" ca="1" si="7">F16-F17</f>
-        <v>55656813.20176746</v>
+        <v>22146872.329996962</v>
       </c>
       <c r="G18" s="106">
         <f t="shared" ca="1" si="7"/>
-        <v>69347713.628754899</v>
+        <v>30771438.296000089</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -11043,39 +11112,39 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="108"/>
-      <c r="B20" s="186" t="s">
+      <c r="B20" s="196" t="s">
         <v>401</v>
       </c>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="186"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="196"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="196"/>
+      <c r="S20" s="196"/>
+      <c r="T20" s="196"/>
+      <c r="U20" s="196"/>
+      <c r="V20" s="196"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="108"/>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
       <c r="G21" s="62" t="s">
         <v>399</v>
       </c>
@@ -11127,16 +11196,16 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="108"/>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="165" t="s">
         <v>362</v>
       </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
       <c r="G22" s="109">
         <f ca="1">'Presupuesto de Inversion'!C209</f>
-        <v>34042587.814618282</v>
+        <v>23102046.761992183</v>
       </c>
       <c r="H22" s="109"/>
       <c r="I22" s="109"/>
@@ -11156,161 +11225,161 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="108"/>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="166" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
       <c r="G23" s="109">
         <v>0</v>
       </c>
       <c r="H23" s="109">
         <f ca="1">'Presupuesto de Inversion'!C145</f>
-        <v>6341205.9674202129</v>
+        <v>3640485.0806874842</v>
       </c>
       <c r="I23" s="109">
         <f ca="1">'Presupuesto de Inversion'!D145</f>
-        <v>3493645.5518617025</v>
+        <v>1742333.3265547103</v>
       </c>
       <c r="J23" s="109">
         <f ca="1">'Presupuesto de Inversion'!E145</f>
-        <v>4929390.2992021283</v>
+        <v>4433742.5301758079</v>
       </c>
       <c r="K23" s="109">
         <f ca="1">'Presupuesto de Inversion'!F145</f>
-        <v>10193787.706117021</v>
+        <v>4306254.7257937556</v>
       </c>
       <c r="L23" s="109">
         <f ca="1">'Presupuesto de Inversion'!G145</f>
-        <v>5838695.3058510637</v>
+        <v>4221262.8562057214</v>
       </c>
       <c r="M23" s="109">
         <f ca="1">'Presupuesto de Inversion'!H145</f>
-        <v>1459673.8264627659</v>
+        <v>977406.50026239851</v>
       </c>
       <c r="N23" s="109">
         <f ca="1">'Presupuesto de Inversion'!I145</f>
-        <v>5479759.1190159582</v>
+        <v>2209788.6092889011</v>
       </c>
       <c r="O23" s="109">
         <f ca="1">'Presupuesto de Inversion'!J145</f>
-        <v>7441943.6070478726</v>
+        <v>7011829.2410128592</v>
       </c>
       <c r="P23" s="109">
         <f ca="1">'Presupuesto de Inversion'!K145</f>
-        <v>10983447.317154257</v>
+        <v>7266804.8497769628</v>
       </c>
       <c r="Q23" s="109">
         <f ca="1">'Presupuesto de Inversion'!L145</f>
-        <v>7585518.0817819154</v>
+        <v>5241165.2912621368</v>
       </c>
       <c r="R23" s="109">
         <f ca="1">'Presupuesto de Inversion'!M145</f>
-        <v>5647262.6728723403</v>
+        <v>3923791.3126475997</v>
       </c>
       <c r="S23" s="109">
         <f ca="1">'Presupuesto de Inversion'!N145</f>
-        <v>2799702.2573138298</v>
+        <v>1997308.9353188144</v>
       </c>
       <c r="T23" s="109">
         <f ca="1">'Presupuesto de Inversion'!O145</f>
-        <v>72194031.712101072</v>
+        <v>46972173.258987144</v>
       </c>
       <c r="U23" s="109">
         <f ca="1">'Presupuesto de Inversion'!P145</f>
-        <v>77969554.249069154</v>
+        <v>50729947.119706117</v>
       </c>
       <c r="V23" s="109">
         <f ca="1">'Presupuesto de Inversion'!Q145</f>
-        <v>89664987.386429533</v>
+        <v>58339439.187662035</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="108"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="164" t="s">
+      <c r="B24" s="165"/>
+      <c r="C24" s="166" t="s">
         <v>364</v>
       </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
       <c r="G24" s="109">
         <v>0</v>
       </c>
       <c r="H24" s="109">
         <f ca="1">'Presupuesto de Inversion'!C145</f>
-        <v>6341205.9674202129</v>
+        <v>3640485.0806874842</v>
       </c>
       <c r="I24" s="109">
         <f ca="1">'Presupuesto de Inversion'!D145</f>
-        <v>3493645.5518617025</v>
+        <v>1742333.3265547103</v>
       </c>
       <c r="J24" s="109">
         <f ca="1">'Presupuesto de Inversion'!E145</f>
-        <v>4929390.2992021283</v>
+        <v>4433742.5301758079</v>
       </c>
       <c r="K24" s="109">
         <f ca="1">'Presupuesto de Inversion'!F145</f>
-        <v>10193787.706117021</v>
+        <v>4306254.7257937556</v>
       </c>
       <c r="L24" s="109">
         <f ca="1">'Presupuesto de Inversion'!G145</f>
-        <v>5838695.3058510637</v>
+        <v>4221262.8562057214</v>
       </c>
       <c r="M24" s="109">
         <f ca="1">'Presupuesto de Inversion'!H145</f>
-        <v>1459673.8264627659</v>
+        <v>977406.50026239851</v>
       </c>
       <c r="N24" s="109">
         <f ca="1">'Presupuesto de Inversion'!I145</f>
-        <v>5479759.1190159582</v>
+        <v>2209788.6092889011</v>
       </c>
       <c r="O24" s="109">
         <f ca="1">'Presupuesto de Inversion'!J145</f>
-        <v>7441943.6070478726</v>
+        <v>7011829.2410128592</v>
       </c>
       <c r="P24" s="109">
         <f ca="1">'Presupuesto de Inversion'!K145</f>
-        <v>10983447.317154257</v>
+        <v>7266804.8497769628</v>
       </c>
       <c r="Q24" s="109">
         <f ca="1">'Presupuesto de Inversion'!L145</f>
-        <v>7585518.0817819154</v>
+        <v>5241165.2912621368</v>
       </c>
       <c r="R24" s="109">
         <f ca="1">'Presupuesto de Inversion'!M145</f>
-        <v>5647262.6728723403</v>
+        <v>3923791.3126475997</v>
       </c>
       <c r="S24" s="109">
         <f ca="1">'Presupuesto de Inversion'!N145</f>
-        <v>2799702.2573138298</v>
+        <v>1997308.9353188144</v>
       </c>
       <c r="T24" s="109">
         <f ca="1">'Presupuesto de Inversion'!O145</f>
-        <v>72194031.712101072</v>
+        <v>46972173.258987144</v>
       </c>
       <c r="U24" s="109">
         <f ca="1">'Presupuesto de Inversion'!P145</f>
-        <v>77969554.249069154</v>
+        <v>50729947.119706117</v>
       </c>
       <c r="V24" s="109">
         <f ca="1">'Presupuesto de Inversion'!Q145</f>
-        <v>89664987.386429533</v>
+        <v>58339439.187662035</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="108"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="152" t="s">
+      <c r="B25" s="165"/>
+      <c r="C25" s="171" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
       <c r="G25" s="109"/>
       <c r="H25" s="109"/>
       <c r="I25" s="109"/>
@@ -11330,13 +11399,13 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="108"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="164" t="s">
+      <c r="B26" s="165"/>
+      <c r="C26" s="166" t="s">
         <v>366</v>
       </c>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
       <c r="G26" s="109"/>
       <c r="H26" s="109"/>
       <c r="I26" s="109"/>
@@ -11356,13 +11425,13 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="108"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="164" t="s">
+      <c r="B27" s="165"/>
+      <c r="C27" s="166" t="s">
         <v>367</v>
       </c>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
       <c r="I27" s="109"/>
@@ -11382,91 +11451,91 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="108"/>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="190" t="s">
         <v>368</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
       <c r="G28" s="110">
         <f ca="1">SUM(G22:G27)</f>
-        <v>34042587.814618282</v>
+        <v>23102046.761992183</v>
       </c>
       <c r="H28" s="110">
         <f ca="1">SUM(H22:H27)</f>
-        <v>12682411.934840426</v>
+        <v>7280970.1613749685</v>
       </c>
       <c r="I28" s="110">
         <f t="shared" ref="I28:V28" ca="1" si="8">SUM(I22:I27)</f>
-        <v>6987291.1037234049</v>
+        <v>3484666.6531094206</v>
       </c>
       <c r="J28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>9858780.5984042566</v>
+        <v>8867485.0603516158</v>
       </c>
       <c r="K28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>20387575.412234042</v>
+        <v>8612509.4515875112</v>
       </c>
       <c r="L28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>11677390.611702127</v>
+        <v>8442525.7124114428</v>
       </c>
       <c r="M28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>2919347.6529255318</v>
+        <v>1954813.000524797</v>
       </c>
       <c r="N28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>10959518.238031916</v>
+        <v>4419577.2185778022</v>
       </c>
       <c r="O28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>14883887.214095745</v>
+        <v>14023658.482025718</v>
       </c>
       <c r="P28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>21966894.634308513</v>
+        <v>14533609.699553926</v>
       </c>
       <c r="Q28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>15171036.163563831</v>
+        <v>10482330.582524274</v>
       </c>
       <c r="R28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>11294525.345744681</v>
+        <v>7847582.6252951995</v>
       </c>
       <c r="S28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>5599404.5146276597</v>
+        <v>3994617.8706376287</v>
       </c>
       <c r="T28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>144388063.42420214</v>
+        <v>93944346.517974287</v>
       </c>
       <c r="U28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>155939108.49813831</v>
+        <v>101459894.23941223</v>
       </c>
       <c r="V28" s="110">
         <f t="shared" ca="1" si="8"/>
-        <v>179329974.77285907</v>
+        <v>116678878.37532407</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="108"/>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="165" t="s">
         <v>338</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="146" t="s">
         <v>369</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="164" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="166" t="s">
         <v>370</v>
       </c>
-      <c r="F29" s="164"/>
+      <c r="F29" s="166"/>
       <c r="G29" s="109">
         <f>'Presupuesto de Inversion'!E16</f>
         <v>4848000</v>
@@ -11489,13 +11558,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="108"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="164" t="s">
+      <c r="B30" s="165"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="166" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="164"/>
+      <c r="F30" s="166"/>
       <c r="G30" s="109">
         <f>'Presupuesto de Inversion'!K12</f>
         <v>640000</v>
@@ -11518,13 +11587,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="108"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="150" t="s">
+      <c r="B31" s="165"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="190" t="s">
         <v>372</v>
       </c>
-      <c r="F31" s="150"/>
+      <c r="F31" s="190"/>
       <c r="G31" s="113">
         <f>SUM(G29:G30)</f>
         <v>5488000</v>
@@ -11547,12 +11616,12 @@
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="108"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="138" t="s">
+      <c r="D32" s="165"/>
+      <c r="E32" s="146" t="s">
         <v>381</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -11622,10 +11691,10 @@
     </row>
     <row r="33" spans="1:22" ht="30">
       <c r="A33" s="108"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="138"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="146"/>
       <c r="F33" s="107" t="s">
         <v>374</v>
       </c>
@@ -11648,10 +11717,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="108"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="138"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="146"/>
       <c r="F34" s="2" t="s">
         <v>375</v>
       </c>
@@ -11674,10 +11743,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="108"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="138"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="146"/>
       <c r="F35" s="2" t="s">
         <v>58</v>
       </c>
@@ -11700,10 +11769,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="108"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="138"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="146"/>
       <c r="F36" s="2" t="s">
         <v>59</v>
       </c>
@@ -11726,10 +11795,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="108"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="146"/>
       <c r="F37" s="2" t="s">
         <v>376</v>
       </c>
@@ -11752,10 +11821,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="108"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="138"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="146"/>
       <c r="F38" s="2" t="s">
         <v>377</v>
       </c>
@@ -11778,10 +11847,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="108"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="138"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="146"/>
       <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
@@ -11804,10 +11873,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="108"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="138"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="146"/>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
@@ -11830,10 +11899,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="108"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="138"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="146"/>
       <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
@@ -11856,10 +11925,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="108"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="138"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="146"/>
       <c r="F42" s="2" t="s">
         <v>378</v>
       </c>
@@ -11882,10 +11951,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="108"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="138"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="146"/>
       <c r="F43" s="2" t="s">
         <v>379</v>
       </c>
@@ -11908,10 +11977,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="108"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="138"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="146"/>
       <c r="F44" s="114" t="s">
         <v>380</v>
       </c>
@@ -11979,13 +12048,13 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="108"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="184" t="s">
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="199" t="s">
         <v>382</v>
       </c>
-      <c r="F45" s="184"/>
+      <c r="F45" s="199"/>
       <c r="G45" s="109"/>
       <c r="H45" s="109">
         <f>'Presupuesto de Inversion'!$E$163/12</f>
@@ -12050,13 +12119,13 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="108"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="184" t="s">
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="199" t="s">
         <v>383</v>
       </c>
-      <c r="F46" s="184"/>
+      <c r="F46" s="199"/>
       <c r="G46" s="109"/>
       <c r="H46" s="109">
         <f>'Presupuesto de Inversion'!$E$164/12</f>
@@ -12121,13 +12190,13 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="108"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="184" t="s">
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="199" t="s">
         <v>384</v>
       </c>
-      <c r="F47" s="184"/>
+      <c r="F47" s="199"/>
       <c r="G47" s="109"/>
       <c r="H47" s="109">
         <f>'Presupuesto de Inversion'!$E$165/12</f>
@@ -12192,13 +12261,13 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="108"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="184" t="s">
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="184"/>
+      <c r="F48" s="199"/>
       <c r="G48" s="109"/>
       <c r="H48" s="109">
         <f>'Presupuesto de Inversion'!$E$166/12</f>
@@ -12263,13 +12332,13 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="108"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="184" t="s">
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="184"/>
+      <c r="F49" s="199"/>
       <c r="G49" s="109"/>
       <c r="H49" s="109">
         <f>'Presupuesto de Inversion'!$E$167/12</f>
@@ -12334,13 +12403,13 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="108"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="184" t="s">
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="199" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="184"/>
+      <c r="F50" s="199"/>
       <c r="G50" s="109"/>
       <c r="H50" s="109">
         <f>'Presupuesto de Inversion'!$E$168/12</f>
@@ -12405,13 +12474,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="108"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="184" t="s">
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="199" t="s">
         <v>386</v>
       </c>
-      <c r="F51" s="184"/>
+      <c r="F51" s="199"/>
       <c r="G51" s="109"/>
       <c r="H51" s="109"/>
       <c r="I51" s="109"/>
@@ -12431,13 +12500,13 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="108"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="148"/>
-      <c r="D52" s="148"/>
-      <c r="E52" s="150" t="s">
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="190" t="s">
         <v>307</v>
       </c>
-      <c r="F52" s="150"/>
+      <c r="F52" s="190"/>
       <c r="G52" s="110"/>
       <c r="H52" s="110">
         <f>SUM(H45:H51)</f>
@@ -12502,15 +12571,15 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="108"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="148" t="s">
+      <c r="B53" s="165"/>
+      <c r="C53" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="148"/>
-      <c r="E53" s="164" t="s">
+      <c r="D53" s="165"/>
+      <c r="E53" s="166" t="s">
         <v>387</v>
       </c>
-      <c r="F53" s="164"/>
+      <c r="F53" s="166"/>
       <c r="G53" s="109"/>
       <c r="H53" s="109"/>
       <c r="I53" s="109"/>
@@ -12530,13 +12599,13 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="108"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="164" t="s">
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="166" t="s">
         <v>388</v>
       </c>
-      <c r="F54" s="164"/>
+      <c r="F54" s="166"/>
       <c r="G54" s="109"/>
       <c r="H54" s="109"/>
       <c r="I54" s="109"/>
@@ -12564,13 +12633,13 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="108"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="164" t="s">
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="F55" s="164"/>
+      <c r="F55" s="166"/>
       <c r="G55" s="109"/>
       <c r="H55" s="109"/>
       <c r="I55" s="109"/>
@@ -12598,510 +12667,510 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="108"/>
-      <c r="B56" s="148"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="164" t="s">
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="166" t="s">
         <v>390</v>
       </c>
-      <c r="F56" s="164"/>
+      <c r="F56" s="166"/>
       <c r="G56" s="109"/>
       <c r="H56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="I56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="J56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="K56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="L56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="M56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="N56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="O56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="P56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="Q56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="R56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="S56" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$154/12</f>
-        <v>154415.01227310507</v>
+        <v>100468.2594706114</v>
       </c>
       <c r="T56" s="109">
         <f ca="1">'Presupuesto de Inversion'!C154</f>
-        <v>1852980.1472772607</v>
+        <v>1205619.1136473368</v>
       </c>
       <c r="U56" s="109">
         <f ca="1">'Presupuesto de Inversion'!D154</f>
-        <v>1964158.9561138963</v>
+        <v>1277956.260466177</v>
       </c>
       <c r="V56" s="109">
         <f ca="1">'Presupuesto de Inversion'!E154</f>
-        <v>2091829.2882612995</v>
+        <v>1361023.4173964786</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="108"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="164" t="s">
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="166" t="s">
         <v>391</v>
       </c>
-      <c r="F57" s="164"/>
+      <c r="F57" s="166"/>
       <c r="G57" s="109"/>
       <c r="H57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="I57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="J57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="K57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="L57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="M57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="N57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="O57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="P57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="Q57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="R57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="S57" s="109">
         <f ca="1">'Presupuesto de Inversion'!$C$155/12</f>
-        <v>23162.25184096576</v>
+        <v>15070.238920591712</v>
       </c>
       <c r="T57" s="109">
         <f ca="1">'Presupuesto de Inversion'!C155</f>
-        <v>277947.02209158911</v>
+        <v>180842.86704710053</v>
       </c>
       <c r="U57" s="109">
         <f ca="1">'Presupuesto de Inversion'!D155</f>
-        <v>294623.84341708443</v>
+        <v>191693.43906992654</v>
       </c>
       <c r="V57" s="109">
         <f ca="1">'Presupuesto de Inversion'!E155</f>
-        <v>313774.39323919493</v>
+        <v>204153.51260947177</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="108"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="164" t="s">
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="166" t="s">
         <v>392</v>
       </c>
-      <c r="F58" s="164"/>
+      <c r="F58" s="166"/>
       <c r="G58" s="109"/>
       <c r="H58" s="109">
         <f ca="1">'Presupuesto de Inversion'!C140</f>
-        <v>2811267.9788896278</v>
+        <v>1613948.3857714513</v>
       </c>
       <c r="I58" s="109">
         <f ca="1">'Presupuesto de Inversion'!D140</f>
-        <v>1548849.5279920213</v>
+        <v>772434.44143925502</v>
       </c>
       <c r="J58" s="109">
         <f ca="1">'Presupuesto de Inversion'!E140</f>
-        <v>2185363.0326462765</v>
+        <v>1965625.8550446085</v>
       </c>
       <c r="K58" s="109">
         <f ca="1">'Presupuesto de Inversion'!F140</f>
-        <v>4519245.8830452133</v>
+        <v>1909106.261768565</v>
       </c>
       <c r="L58" s="109">
         <f ca="1">'Presupuesto de Inversion'!G140</f>
-        <v>2588488.2522606384</v>
+        <v>1871426.53291787</v>
       </c>
       <c r="M58" s="109">
         <f ca="1">'Presupuesto de Inversion'!H140</f>
-        <v>647122.0630651596</v>
+        <v>433316.88178299664</v>
       </c>
       <c r="N58" s="109">
         <f ca="1">'Presupuesto de Inversion'!I140</f>
-        <v>2429359.8760970747</v>
+        <v>979672.95011807955</v>
       </c>
       <c r="O58" s="109">
         <f ca="1">'Presupuesto de Inversion'!J140</f>
-        <v>3299261.6657912238</v>
+        <v>3108577.6301823673</v>
       </c>
       <c r="P58" s="109">
         <f ca="1">'Presupuesto de Inversion'!K140</f>
-        <v>4869328.3106050538</v>
+        <v>3221616.8167344532</v>
       </c>
       <c r="Q58" s="109">
         <f ca="1">'Presupuesto de Inversion'!L140</f>
-        <v>3362913.016256649</v>
+        <v>2323583.2791262143</v>
       </c>
       <c r="R58" s="109">
         <f ca="1">'Presupuesto de Inversion'!M140</f>
-        <v>2503619.7849734044</v>
+        <v>1739547.4819404359</v>
       </c>
       <c r="S58" s="109">
         <f ca="1">'Presupuesto de Inversion'!N140</f>
-        <v>1241201.3340757978</v>
+        <v>885473.62799134105</v>
       </c>
       <c r="T58" s="109">
         <f ca="1">'Presupuesto de Inversion'!O140</f>
-        <v>32006020.72569814</v>
+        <v>20824330.144817639</v>
       </c>
       <c r="U58" s="109">
         <f ca="1">'Presupuesto de Inversion'!P140</f>
-        <v>34566502.383753993</v>
+        <v>22490276.556403048</v>
       </c>
       <c r="V58" s="109">
         <f ca="1">'Presupuesto de Inversion'!Q140</f>
-        <v>39751477.741317093</v>
+        <v>25863818.039863504</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="108"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="164" t="s">
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="166" t="s">
         <v>393</v>
       </c>
-      <c r="F59" s="164"/>
+      <c r="F59" s="166"/>
       <c r="G59" s="109"/>
       <c r="H59" s="109">
         <f ca="1">'Presupuesto de Inversion'!C141</f>
-        <v>421690.19683344418</v>
+        <v>242092.25786571769</v>
       </c>
       <c r="I59" s="109">
         <f ca="1">'Presupuesto de Inversion'!D141</f>
-        <v>232327.42919880318</v>
+        <v>115865.16621588825</v>
       </c>
       <c r="J59" s="109">
         <f ca="1">'Presupuesto de Inversion'!E141</f>
-        <v>327804.45489694149</v>
+        <v>294843.87825669127</v>
       </c>
       <c r="K59" s="109">
         <f ca="1">'Presupuesto de Inversion'!F141</f>
-        <v>677886.88245678192</v>
+        <v>286365.93926528475</v>
       </c>
       <c r="L59" s="109">
         <f ca="1">'Presupuesto de Inversion'!G141</f>
-        <v>388273.23783909576</v>
+        <v>280713.97993768047</v>
       </c>
       <c r="M59" s="109">
         <f ca="1">'Presupuesto de Inversion'!H141</f>
-        <v>97068.30945977394</v>
+        <v>64997.532267449496</v>
       </c>
       <c r="N59" s="109">
         <f ca="1">'Presupuesto de Inversion'!I141</f>
-        <v>364403.98141456122</v>
+        <v>146950.94251771193</v>
       </c>
       <c r="O59" s="109">
         <f ca="1">'Presupuesto de Inversion'!J141</f>
-        <v>494889.24986868352</v>
+        <v>466286.64452735509</v>
       </c>
       <c r="P59" s="109">
         <f ca="1">'Presupuesto de Inversion'!K141</f>
-        <v>730399.24659075809</v>
+        <v>483242.52251016797</v>
       </c>
       <c r="Q59" s="109">
         <f ca="1">'Presupuesto de Inversion'!L141</f>
-        <v>504436.95243849733</v>
+        <v>348537.49186893215</v>
       </c>
       <c r="R59" s="109">
         <f ca="1">'Presupuesto de Inversion'!M141</f>
-        <v>375542.96774601063</v>
+        <v>260932.12229106537</v>
       </c>
       <c r="S59" s="109">
         <f ca="1">'Presupuesto de Inversion'!N141</f>
-        <v>186180.20011136966</v>
+        <v>132821.04419870116</v>
       </c>
       <c r="T59" s="109">
         <f ca="1">'Presupuesto de Inversion'!O141</f>
-        <v>4800903.1088547213</v>
+        <v>3123649.521722646</v>
       </c>
       <c r="U59" s="109">
         <f ca="1">'Presupuesto de Inversion'!P141</f>
-        <v>5184975.3575630989</v>
+        <v>3373541.4834604575</v>
       </c>
       <c r="V59" s="109">
         <f ca="1">'Presupuesto de Inversion'!Q141</f>
-        <v>5962721.6611975636</v>
+        <v>3879572.705979526</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="108"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="164" t="s">
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="166" t="s">
         <v>394</v>
       </c>
-      <c r="F60" s="164"/>
+      <c r="F60" s="166"/>
       <c r="G60" s="109"/>
       <c r="H60" s="109">
         <f ca="1">$E$14/12</f>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="I60" s="109">
         <f t="shared" ref="I60:S60" ca="1" si="10">$E$14/12</f>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="J60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="K60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="L60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="M60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="N60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="O60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="P60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="Q60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="R60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="S60" s="109">
         <f t="shared" ca="1" si="10"/>
-        <v>1781156.2380425704</v>
+        <v>693209.6221495535</v>
       </c>
       <c r="T60" s="109">
         <f ca="1">E14</f>
-        <v>21373874.856510844</v>
+        <v>8318515.4657946415</v>
       </c>
       <c r="U60" s="109">
         <f t="shared" ref="U60:V60" ca="1" si="11">F14</f>
-        <v>23424584.680878557</v>
+        <v>9321074.2129616849</v>
       </c>
       <c r="V60" s="109">
         <f t="shared" ca="1" si="11"/>
-        <v>29186748.160250377</v>
+        <v>12950942.043771081</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="108"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="150" t="s">
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="150"/>
+      <c r="F61" s="190"/>
       <c r="G61" s="110"/>
       <c r="H61" s="110">
         <f ca="1">SUM(H53:H60)</f>
-        <v>5191691.6778797135</v>
+        <v>2664788.7641779254</v>
       </c>
       <c r="I61" s="110">
         <f t="shared" ref="I61:V61" ca="1" si="12">SUM(I53:I60)</f>
-        <v>3739910.459347466</v>
+        <v>1697047.7281958999</v>
       </c>
       <c r="J61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>4471900.9896998592</v>
+        <v>3069217.8538420564</v>
       </c>
       <c r="K61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>7155866.2676586369</v>
+        <v>3004220.3215746065</v>
       </c>
       <c r="L61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>4935494.992256375</v>
+        <v>2960888.633396307</v>
       </c>
       <c r="M61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>2702923.8746815748</v>
+        <v>1307062.5345912029</v>
       </c>
       <c r="N61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>4752497.3596682772</v>
+        <v>1935372.0131765483</v>
       </c>
       <c r="O61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>5752884.4178165486</v>
+        <v>4383612.3952504788</v>
       </c>
       <c r="P61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>7558461.0593524529</v>
+        <v>4513607.4597853776</v>
       </c>
       <c r="Q61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>5826083.4708517874</v>
+        <v>3480868.8915359033</v>
       </c>
       <c r="R61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>4837896.2548760558</v>
+        <v>2809227.7247722582</v>
       </c>
       <c r="S61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>3386115.0363438088</v>
+        <v>1827042.7927307989</v>
       </c>
       <c r="T61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>60311725.86043255</v>
+        <v>33652957.113029361</v>
       </c>
       <c r="U61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>65514845.221726634</v>
+        <v>36734541.952361293</v>
       </c>
       <c r="V61" s="110">
         <f t="shared" ca="1" si="12"/>
-        <v>77391751.244265527</v>
+        <v>44344709.719620064</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="108"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="181" t="s">
+      <c r="B62" s="165"/>
+      <c r="C62" s="200" t="s">
         <v>395</v>
       </c>
-      <c r="D62" s="181"/>
-      <c r="E62" s="181"/>
-      <c r="F62" s="181"/>
+      <c r="D62" s="200"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="200"/>
       <c r="G62" s="109"/>
       <c r="H62" s="109">
         <f ca="1">$E$17/12</f>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="I62" s="109">
         <f t="shared" ref="I62:S62" ca="1" si="13">$E$17/12</f>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="J62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="K62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="L62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="M62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="N62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="O62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="P62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="Q62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="R62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="S62" s="109">
         <f t="shared" ca="1" si="13"/>
-        <v>470225.24684323859</v>
+        <v>183007.34024748215</v>
       </c>
       <c r="T62" s="109">
         <f ca="1">E17</f>
-        <v>5642702.9621188631</v>
+        <v>2196088.0829697857</v>
       </c>
       <c r="U62" s="109">
         <f t="shared" ref="U62:V62" ca="1" si="14">F17</f>
-        <v>6184090.35575194</v>
+        <v>2460763.592221885</v>
       </c>
       <c r="V62" s="109">
         <f t="shared" ca="1" si="14"/>
-        <v>7705301.5143061001</v>
+        <v>3419048.6995555656</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="108"/>
-      <c r="B63" s="148"/>
-      <c r="C63" s="164" t="s">
+      <c r="B63" s="165"/>
+      <c r="C63" s="166" t="s">
         <v>396</v>
       </c>
-      <c r="D63" s="164"/>
-      <c r="E63" s="164"/>
-      <c r="F63" s="164"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166"/>
       <c r="G63" s="109"/>
       <c r="H63" s="109"/>
       <c r="I63" s="109"/>
@@ -13121,161 +13190,161 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="108"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="143" t="s">
+      <c r="B64" s="165"/>
+      <c r="C64" s="191" t="s">
         <v>355</v>
       </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="143"/>
+      <c r="D64" s="191"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
       <c r="G64" s="111">
         <f>G31</f>
         <v>5488000</v>
       </c>
       <c r="H64" s="111">
         <f ca="1">H44+H52+H61</f>
-        <v>8186021.6778797135</v>
+        <v>5659118.7641779259</v>
       </c>
       <c r="I64" s="111">
         <f t="shared" ref="I64:V64" ca="1" si="15">I44+I52+I61</f>
-        <v>6534240.459347466</v>
+        <v>4491377.7281959001</v>
       </c>
       <c r="J64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>7266230.9896998592</v>
+        <v>5863547.8538420564</v>
       </c>
       <c r="K64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>10866536.267658636</v>
+        <v>6714890.321574606</v>
       </c>
       <c r="L64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>8626164.992256375</v>
+        <v>6651558.633396307</v>
       </c>
       <c r="M64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>7077543.8746815752</v>
+        <v>5681682.5345912026</v>
       </c>
       <c r="N64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>9127117.3596682772</v>
+        <v>6309992.0131765483</v>
       </c>
       <c r="O64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>10127504.41781655</v>
+        <v>8758232.3952504788</v>
       </c>
       <c r="P64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>11933081.059352454</v>
+        <v>8888227.4597853776</v>
       </c>
       <c r="Q64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>11497043.470851786</v>
+        <v>9151828.8915359043</v>
       </c>
       <c r="R64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>9212516.2548760548</v>
+        <v>7183847.7247722577</v>
       </c>
       <c r="S64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>7760735.0363438092</v>
+        <v>6201662.7927307989</v>
       </c>
       <c r="T64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>108214735.86043255</v>
+        <v>81555967.113029361</v>
       </c>
       <c r="U64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>116292035.82172664</v>
+        <v>87511732.552361295</v>
       </c>
       <c r="V64" s="111">
         <f t="shared" ca="1" si="15"/>
-        <v>131469459.23326553</v>
+        <v>98422417.708620071</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="108"/>
-      <c r="B65" s="179" t="s">
+      <c r="B65" s="201" t="s">
         <v>397</v>
       </c>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="179"/>
+      <c r="C65" s="201"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="201"/>
+      <c r="F65" s="201"/>
       <c r="G65" s="113">
         <f ca="1">G28-G64</f>
-        <v>28554587.814618282</v>
+        <v>17614046.761992183</v>
       </c>
       <c r="H65" s="113">
         <f ca="1">H28-H64</f>
-        <v>4496390.2569607124</v>
+        <v>1621851.3971970426</v>
       </c>
       <c r="I65" s="113">
         <f t="shared" ref="I65:V65" ca="1" si="16">I28-I64</f>
-        <v>453050.64437593892</v>
+        <v>-1006711.0750864795</v>
       </c>
       <c r="J65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>2592549.6087043975</v>
+        <v>3003937.2065095594</v>
       </c>
       <c r="K65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>9521039.1445754059</v>
+        <v>1897619.1300129052</v>
       </c>
       <c r="L65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>3051225.6194457524</v>
+        <v>1790967.0790151358</v>
       </c>
       <c r="M65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>-4158196.2217560434</v>
+        <v>-3726869.5340664056</v>
       </c>
       <c r="N65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>1832400.8783636391</v>
+        <v>-1890414.7945987461</v>
       </c>
       <c r="O65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>4756382.7962791957</v>
+        <v>5265426.0867752396</v>
       </c>
       <c r="P65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>10033813.574956059</v>
+        <v>5645382.2397685479</v>
       </c>
       <c r="Q65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>3673992.6927120443</v>
+        <v>1330501.6909883693</v>
       </c>
       <c r="R65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>2082009.0908686258</v>
+        <v>663734.90052294172</v>
       </c>
       <c r="S65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>-2161330.5217161495</v>
+        <v>-2207044.9220931702</v>
       </c>
       <c r="T65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>36173327.563769594</v>
+        <v>12388379.404944927</v>
       </c>
       <c r="U65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>39647072.676411673</v>
+        <v>13948161.687050939</v>
       </c>
       <c r="V65" s="113">
         <f t="shared" ca="1" si="16"/>
-        <v>47860515.539593533</v>
+        <v>18256460.666703999</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="108"/>
-      <c r="B66" s="141" t="s">
+      <c r="B66" s="144" t="s">
         <v>398</v>
       </c>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="144"/>
       <c r="G66" s="109"/>
       <c r="H66" s="109"/>
       <c r="I66" s="109"/>
@@ -13297,26 +13366,26 @@
       <c r="A67" s="108"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="B68" s="180" t="s">
+      <c r="B68" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="C68" s="180"/>
-      <c r="D68" s="180"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="180"/>
-      <c r="G68" s="180"/>
-      <c r="H68" s="180"/>
-      <c r="I68" s="180"/>
-      <c r="J68" s="180"/>
+      <c r="C68" s="203"/>
+      <c r="D68" s="203"/>
+      <c r="E68" s="203"/>
+      <c r="F68" s="203"/>
+      <c r="G68" s="203"/>
+      <c r="H68" s="203"/>
+      <c r="I68" s="203"/>
+      <c r="J68" s="203"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="B69" s="148" t="s">
+      <c r="B69" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
       <c r="G69" s="62" t="s">
         <v>418</v>
       </c>
@@ -13331,119 +13400,119 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="B70" s="148" t="s">
+      <c r="B70" s="165" t="s">
         <v>416</v>
       </c>
-      <c r="C70" s="148" t="s">
+      <c r="C70" s="165" t="s">
         <v>406</v>
       </c>
-      <c r="D70" s="148"/>
-      <c r="E70" s="164" t="s">
+      <c r="D70" s="165"/>
+      <c r="E70" s="166" t="s">
         <v>402</v>
       </c>
-      <c r="F70" s="164"/>
+      <c r="F70" s="166"/>
       <c r="G70" s="109">
         <f ca="1">G65</f>
-        <v>28554587.814618282</v>
+        <v>17614046.761992183</v>
       </c>
       <c r="H70" s="109">
         <f ca="1">T65</f>
-        <v>36173327.563769594</v>
+        <v>12388379.404944927</v>
       </c>
       <c r="I70" s="109">
         <f t="shared" ref="I70:J70" ca="1" si="17">U65</f>
-        <v>39647072.676411673</v>
+        <v>13948161.687050939</v>
       </c>
       <c r="J70" s="109">
         <f t="shared" ca="1" si="17"/>
-        <v>47860515.539593533</v>
+        <v>18256460.666703999</v>
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="164" t="s">
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="166" t="s">
         <v>403</v>
       </c>
-      <c r="F71" s="164"/>
+      <c r="F71" s="166"/>
       <c r="G71" s="109">
         <v>0</v>
       </c>
       <c r="H71" s="109">
         <f ca="1">T23</f>
-        <v>72194031.712101072</v>
+        <v>46972173.258987144</v>
       </c>
       <c r="I71" s="109">
         <f t="shared" ref="I71:J71" ca="1" si="18">U23</f>
-        <v>77969554.249069154</v>
+        <v>50729947.119706117</v>
       </c>
       <c r="J71" s="109">
         <f t="shared" ca="1" si="18"/>
-        <v>89664987.386429533</v>
+        <v>58339439.187662035</v>
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="B72" s="148"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="164" t="s">
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="166" t="s">
         <v>404</v>
       </c>
-      <c r="F72" s="164"/>
+      <c r="F72" s="166"/>
       <c r="G72" s="109"/>
       <c r="H72" s="109"/>
       <c r="I72" s="109"/>
       <c r="J72" s="109"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="164" t="s">
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="166" t="s">
         <v>405</v>
       </c>
-      <c r="F73" s="164"/>
+      <c r="F73" s="166"/>
       <c r="G73" s="109"/>
       <c r="H73" s="109"/>
       <c r="I73" s="109"/>
       <c r="J73" s="109"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="148"/>
-      <c r="E74" s="150" t="s">
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="190" t="s">
         <v>407</v>
       </c>
-      <c r="F74" s="150"/>
+      <c r="F74" s="190"/>
       <c r="G74" s="110">
         <f ca="1">SUM(G70:G73)</f>
-        <v>28554587.814618282</v>
+        <v>17614046.761992183</v>
       </c>
       <c r="H74" s="110">
         <f t="shared" ref="H74:J74" ca="1" si="19">SUM(H70:H73)</f>
-        <v>108367359.27587067</v>
+        <v>59360552.66393207</v>
       </c>
       <c r="I74" s="110">
         <f t="shared" ca="1" si="19"/>
-        <v>117616626.92548083</v>
+        <v>64678108.806757055</v>
       </c>
       <c r="J74" s="110">
         <f t="shared" ca="1" si="19"/>
-        <v>137525502.92602307</v>
+        <v>76595899.854366034</v>
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="B75" s="148"/>
-      <c r="C75" s="148" t="s">
+      <c r="B75" s="165"/>
+      <c r="C75" s="165" t="s">
         <v>417</v>
       </c>
-      <c r="D75" s="148"/>
-      <c r="E75" s="141" t="s">
+      <c r="D75" s="165"/>
+      <c r="E75" s="144" t="s">
         <v>408</v>
       </c>
-      <c r="F75" s="141"/>
+      <c r="F75" s="144"/>
       <c r="G75" s="109">
         <f>'Presupuesto de Inversion'!E5</f>
         <v>3348000</v>
@@ -13453,13 +13522,13 @@
       <c r="J75" s="109"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="141" t="s">
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="F76" s="141"/>
+      <c r="F76" s="144"/>
       <c r="G76" s="109">
         <f>'Presupuesto de Inversion'!E8</f>
         <v>1500000</v>
@@ -13469,13 +13538,13 @@
       <c r="J76" s="109"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="148"/>
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
-      <c r="E77" s="141" t="s">
+      <c r="B77" s="165"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="144" t="s">
         <v>410</v>
       </c>
-      <c r="F77" s="141"/>
+      <c r="F77" s="144"/>
       <c r="G77" s="109">
         <f>'Presupuesto de Inversion'!E11</f>
         <v>0</v>
@@ -13485,13 +13554,13 @@
       <c r="J77" s="109"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="148"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
-      <c r="E78" s="141" t="s">
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="144" t="s">
         <v>411</v>
       </c>
-      <c r="F78" s="141"/>
+      <c r="F78" s="144"/>
       <c r="G78" s="109">
         <f>0</f>
         <v>0</v>
@@ -13501,13 +13570,13 @@
       <c r="J78" s="109"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="148"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
-      <c r="E79" s="141" t="s">
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="144" t="s">
         <v>412</v>
       </c>
-      <c r="F79" s="141"/>
+      <c r="F79" s="144"/>
       <c r="G79" s="109">
         <f>'Presupuesto de Inversion'!E15</f>
         <v>0</v>
@@ -13517,13 +13586,13 @@
       <c r="J79" s="109"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="148"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="141" t="s">
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="144" t="s">
         <v>413</v>
       </c>
-      <c r="F80" s="141"/>
+      <c r="F80" s="144"/>
       <c r="G80" s="109"/>
       <c r="H80" s="109">
         <f>'Presupuesto de Inversion'!G31</f>
@@ -13539,13 +13608,13 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="B81" s="148"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="148"/>
-      <c r="E81" s="183" t="s">
+      <c r="B81" s="165"/>
+      <c r="C81" s="165"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="202" t="s">
         <v>414</v>
       </c>
-      <c r="F81" s="183"/>
+      <c r="F81" s="202"/>
       <c r="G81" s="113">
         <f>SUM(G75:G80)</f>
         <v>4848000</v>
@@ -13564,53 +13633,53 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="B82" s="148"/>
-      <c r="C82" s="143" t="s">
+      <c r="B82" s="165"/>
+      <c r="C82" s="191" t="s">
         <v>415</v>
       </c>
-      <c r="D82" s="143"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="143"/>
+      <c r="D82" s="191"/>
+      <c r="E82" s="191"/>
+      <c r="F82" s="191"/>
       <c r="G82" s="116">
         <f ca="1">G74+G81</f>
-        <v>33402587.814618282</v>
+        <v>22462046.761992183</v>
       </c>
       <c r="H82" s="116">
         <f t="shared" ref="H82:J82" ca="1" si="21">H74+H81</f>
-        <v>108567359.27587067</v>
+        <v>59560552.66393207</v>
       </c>
       <c r="I82" s="116">
         <f t="shared" ca="1" si="21"/>
-        <v>117816626.92548083</v>
+        <v>64878108.806757055</v>
       </c>
       <c r="J82" s="116">
         <f t="shared" ca="1" si="21"/>
-        <v>137725502.92602307</v>
+        <v>76795899.854366034</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2"/>
-      <c r="B84" s="180" t="s">
+      <c r="B84" s="203" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="180"/>
-      <c r="F84" s="180"/>
-      <c r="G84" s="180"/>
-      <c r="H84" s="180"/>
-      <c r="I84" s="180"/>
-      <c r="J84" s="180"/>
+      <c r="C84" s="203"/>
+      <c r="D84" s="203"/>
+      <c r="E84" s="203"/>
+      <c r="F84" s="203"/>
+      <c r="G84" s="203"/>
+      <c r="H84" s="203"/>
+      <c r="I84" s="203"/>
+      <c r="J84" s="203"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2"/>
-      <c r="B85" s="148" t="s">
+      <c r="B85" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="148"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="148"/>
-      <c r="F85" s="148"/>
+      <c r="C85" s="165"/>
+      <c r="D85" s="165"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="165"/>
       <c r="G85" s="62" t="s">
         <v>443</v>
       </c>
@@ -13626,17 +13695,17 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2"/>
-      <c r="B86" s="148" t="s">
+      <c r="B86" s="165" t="s">
         <v>434</v>
       </c>
-      <c r="C86" s="148" t="s">
+      <c r="C86" s="165" t="s">
         <v>429</v>
       </c>
-      <c r="D86" s="148"/>
-      <c r="E86" s="164" t="s">
+      <c r="D86" s="165"/>
+      <c r="E86" s="166" t="s">
         <v>420</v>
       </c>
-      <c r="F86" s="164"/>
+      <c r="F86" s="166"/>
       <c r="G86" s="77"/>
       <c r="H86" s="77"/>
       <c r="I86" s="77"/>
@@ -13644,13 +13713,13 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2"/>
-      <c r="B87" s="148"/>
-      <c r="C87" s="148"/>
-      <c r="D87" s="148"/>
-      <c r="E87" s="164" t="s">
+      <c r="B87" s="165"/>
+      <c r="C87" s="165"/>
+      <c r="D87" s="165"/>
+      <c r="E87" s="166" t="s">
         <v>421</v>
       </c>
-      <c r="F87" s="164"/>
+      <c r="F87" s="166"/>
       <c r="G87" s="77"/>
       <c r="H87" s="77">
         <f>'Presupuesto de Inversion'!E64</f>
@@ -13667,13 +13736,13 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2"/>
-      <c r="B88" s="148"/>
-      <c r="C88" s="148"/>
-      <c r="D88" s="148"/>
-      <c r="E88" s="181" t="s">
+      <c r="B88" s="165"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="165"/>
+      <c r="E88" s="200" t="s">
         <v>422</v>
       </c>
-      <c r="F88" s="181"/>
+      <c r="F88" s="200"/>
       <c r="G88" s="77"/>
       <c r="H88" s="77"/>
       <c r="I88" s="77"/>
@@ -13681,128 +13750,128 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2"/>
-      <c r="B89" s="148"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="181" t="s">
+      <c r="B89" s="165"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="200" t="s">
         <v>423</v>
       </c>
-      <c r="F89" s="181"/>
+      <c r="F89" s="200"/>
       <c r="G89" s="77"/>
       <c r="H89" s="77">
         <f ca="1">'Presupuesto de Inversion'!C154</f>
-        <v>1852980.1472772607</v>
+        <v>1205619.1136473368</v>
       </c>
       <c r="I89" s="77">
         <f ca="1">'Presupuesto de Inversion'!D154</f>
-        <v>1964158.9561138963</v>
+        <v>1277956.260466177</v>
       </c>
       <c r="J89" s="77">
         <f ca="1">'Presupuesto de Inversion'!E154</f>
-        <v>2091829.2882612995</v>
+        <v>1361023.4173964786</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2"/>
-      <c r="B90" s="148"/>
-      <c r="C90" s="148"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="181" t="s">
+      <c r="B90" s="165"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="200" t="s">
         <v>391</v>
       </c>
-      <c r="F90" s="181"/>
+      <c r="F90" s="200"/>
       <c r="G90" s="77"/>
       <c r="H90" s="77">
         <f ca="1">'Presupuesto de Inversion'!C155</f>
-        <v>277947.02209158911</v>
+        <v>180842.86704710053</v>
       </c>
       <c r="I90" s="77">
         <f ca="1">'Presupuesto de Inversion'!D155</f>
-        <v>294623.84341708443</v>
+        <v>191693.43906992654</v>
       </c>
       <c r="J90" s="77">
         <f ca="1">'Presupuesto de Inversion'!E155</f>
-        <v>313774.39323919493</v>
+        <v>204153.51260947177</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2"/>
-      <c r="B91" s="148"/>
-      <c r="C91" s="148"/>
-      <c r="D91" s="148"/>
-      <c r="E91" s="181" t="s">
+      <c r="B91" s="165"/>
+      <c r="C91" s="165"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="200" t="s">
         <v>424</v>
       </c>
-      <c r="F91" s="181"/>
+      <c r="F91" s="200"/>
       <c r="G91" s="77"/>
       <c r="H91" s="77">
         <f ca="1">'Presupuesto de Inversion'!O140</f>
-        <v>32006020.72569814</v>
+        <v>20824330.144817639</v>
       </c>
       <c r="I91" s="77">
         <f ca="1">'Presupuesto de Inversion'!P140</f>
-        <v>34566502.383753993</v>
+        <v>22490276.556403048</v>
       </c>
       <c r="J91" s="77">
         <f ca="1">'Presupuesto de Inversion'!Q140</f>
-        <v>39751477.741317093</v>
+        <v>25863818.039863504</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2"/>
-      <c r="B92" s="148"/>
-      <c r="C92" s="148"/>
-      <c r="D92" s="148"/>
-      <c r="E92" s="181" t="s">
+      <c r="B92" s="165"/>
+      <c r="C92" s="165"/>
+      <c r="D92" s="165"/>
+      <c r="E92" s="200" t="s">
         <v>425</v>
       </c>
-      <c r="F92" s="181"/>
+      <c r="F92" s="200"/>
       <c r="G92" s="77"/>
       <c r="H92" s="77">
         <f ca="1">'Presupuesto de Inversion'!O141</f>
-        <v>4800903.1088547213</v>
+        <v>3123649.521722646</v>
       </c>
       <c r="I92" s="77">
         <f ca="1">'Presupuesto de Inversion'!P141</f>
-        <v>5184975.3575630989</v>
+        <v>3373541.4834604575</v>
       </c>
       <c r="J92" s="77">
         <f ca="1">'Presupuesto de Inversion'!Q141</f>
-        <v>5962721.6611975636</v>
+        <v>3879572.705979526</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2"/>
-      <c r="B93" s="148"/>
-      <c r="C93" s="148"/>
-      <c r="D93" s="148"/>
-      <c r="E93" s="181" t="s">
+      <c r="B93" s="165"/>
+      <c r="C93" s="165"/>
+      <c r="D93" s="165"/>
+      <c r="E93" s="200" t="s">
         <v>426</v>
       </c>
-      <c r="F93" s="181"/>
+      <c r="F93" s="200"/>
       <c r="G93" s="77"/>
       <c r="H93" s="77">
         <f ca="1">E14+E15</f>
-        <v>29068469.804854747</v>
+        <v>11313181.033480711</v>
       </c>
       <c r="I93" s="77">
         <f t="shared" ref="I93:J93" ca="1" si="22">F14+F15</f>
-        <v>31857435.165994838</v>
+        <v>12676660.929627892</v>
       </c>
       <c r="J93" s="77">
         <f t="shared" ca="1" si="22"/>
-        <v>39693977.497940511</v>
+        <v>17613281.179528669</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2"/>
-      <c r="B94" s="148"/>
-      <c r="C94" s="148"/>
-      <c r="D94" s="148"/>
-      <c r="E94" s="181" t="s">
+      <c r="B94" s="165"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="165"/>
+      <c r="E94" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="F94" s="181"/>
+      <c r="F94" s="200"/>
       <c r="G94" s="77"/>
       <c r="H94" s="77">
         <v>0</v>
@@ -13816,41 +13885,41 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2"/>
-      <c r="B95" s="148"/>
-      <c r="C95" s="148"/>
-      <c r="D95" s="148"/>
-      <c r="E95" s="182" t="s">
+      <c r="B95" s="165"/>
+      <c r="C95" s="165"/>
+      <c r="D95" s="165"/>
+      <c r="E95" s="205" t="s">
         <v>428</v>
       </c>
-      <c r="F95" s="182"/>
+      <c r="F95" s="205"/>
       <c r="G95" s="102">
         <f>SUM(G86:G94)</f>
         <v>0</v>
       </c>
       <c r="H95" s="102">
         <f t="shared" ref="H95:J95" ca="1" si="23">SUM(H86:H94)</f>
-        <v>68006320.808776453</v>
+        <v>36647622.680715434</v>
       </c>
       <c r="I95" s="102">
         <f t="shared" ca="1" si="23"/>
-        <v>73867695.706842914</v>
+        <v>40010128.6690275</v>
       </c>
       <c r="J95" s="102">
         <f t="shared" ca="1" si="23"/>
-        <v>87813780.581955671</v>
+        <v>48921848.855377644</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2"/>
-      <c r="B96" s="148"/>
-      <c r="C96" s="148" t="s">
+      <c r="B96" s="165"/>
+      <c r="C96" s="165" t="s">
         <v>433</v>
       </c>
-      <c r="D96" s="148"/>
-      <c r="E96" s="164" t="s">
+      <c r="D96" s="165"/>
+      <c r="E96" s="166" t="s">
         <v>430</v>
       </c>
-      <c r="F96" s="164"/>
+      <c r="F96" s="166"/>
       <c r="G96" s="77"/>
       <c r="H96" s="77"/>
       <c r="I96" s="77"/>
@@ -13858,9 +13927,9 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2"/>
-      <c r="B97" s="148"/>
-      <c r="C97" s="148"/>
-      <c r="D97" s="148"/>
+      <c r="B97" s="165"/>
+      <c r="C97" s="165"/>
+      <c r="D97" s="165"/>
       <c r="E97" s="117" t="s">
         <v>431</v>
       </c>
@@ -13872,13 +13941,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2"/>
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="148"/>
-      <c r="E98" s="164" t="s">
+      <c r="B98" s="165"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="166" t="s">
         <v>427</v>
       </c>
-      <c r="F98" s="164"/>
+      <c r="F98" s="166"/>
       <c r="G98" s="77"/>
       <c r="H98" s="77"/>
       <c r="I98" s="77"/>
@@ -13886,13 +13955,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2"/>
-      <c r="B99" s="148"/>
-      <c r="C99" s="148"/>
-      <c r="D99" s="148"/>
-      <c r="E99" s="150" t="s">
+      <c r="B99" s="165"/>
+      <c r="C99" s="165"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="190" t="s">
         <v>432</v>
       </c>
-      <c r="F99" s="150"/>
+      <c r="F99" s="190"/>
       <c r="G99" s="102">
         <f>SUM(G96:G98)</f>
         <v>0</v>
@@ -13912,37 +13981,37 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2"/>
-      <c r="B100" s="148"/>
-      <c r="C100" s="178" t="s">
+      <c r="B100" s="165"/>
+      <c r="C100" s="204" t="s">
         <v>435</v>
       </c>
-      <c r="D100" s="178"/>
-      <c r="E100" s="178"/>
-      <c r="F100" s="178"/>
+      <c r="D100" s="204"/>
+      <c r="E100" s="204"/>
+      <c r="F100" s="204"/>
       <c r="G100" s="119">
         <f>G95+G99</f>
         <v>0</v>
       </c>
       <c r="H100" s="119">
         <f t="shared" ref="H100:J100" ca="1" si="25">H95+H99</f>
-        <v>68006320.808776453</v>
+        <v>36647622.680715434</v>
       </c>
       <c r="I100" s="119">
         <f t="shared" ca="1" si="25"/>
-        <v>73867695.706842914</v>
+        <v>40010128.6690275</v>
       </c>
       <c r="J100" s="119">
         <f t="shared" ca="1" si="25"/>
-        <v>87813780.581955671</v>
+        <v>48921848.855377644</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2"/>
-      <c r="B101" s="148" t="s">
+      <c r="B101" s="165" t="s">
         <v>441</v>
       </c>
-      <c r="C101" s="148"/>
-      <c r="D101" s="148"/>
+      <c r="C101" s="165"/>
+      <c r="D101" s="165"/>
       <c r="E101" s="2" t="s">
         <v>436</v>
       </c>
@@ -13954,9 +14023,9 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2"/>
-      <c r="B102" s="148"/>
-      <c r="C102" s="148"/>
-      <c r="D102" s="148"/>
+      <c r="B102" s="165"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
       <c r="E102" s="2" t="s">
         <v>437</v>
       </c>
@@ -13964,22 +14033,22 @@
       <c r="G102" s="77"/>
       <c r="H102" s="77">
         <f ca="1">E16</f>
-        <v>56427029.621188626</v>
+        <v>21960880.829697855</v>
       </c>
       <c r="I102" s="77">
         <f t="shared" ref="I102:J102" ca="1" si="26">F16</f>
-        <v>61840903.557519399</v>
+        <v>24607635.922218848</v>
       </c>
       <c r="J102" s="77">
         <f t="shared" ca="1" si="26"/>
-        <v>77053015.143060997</v>
+        <v>34190486.995555654</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2"/>
-      <c r="B103" s="148"/>
-      <c r="C103" s="148"/>
-      <c r="D103" s="148"/>
+      <c r="B103" s="165"/>
+      <c r="C103" s="165"/>
+      <c r="D103" s="165"/>
       <c r="E103" s="2" t="s">
         <v>438</v>
       </c>
@@ -13991,9 +14060,9 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2"/>
-      <c r="B104" s="148"/>
-      <c r="C104" s="148"/>
-      <c r="D104" s="148"/>
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="2" t="s">
         <v>439</v>
       </c>
@@ -14001,158 +14070,165 @@
       <c r="G104" s="77"/>
       <c r="H104" s="77">
         <f ca="1">E17</f>
-        <v>5642702.9621188631</v>
+        <v>2196088.0829697857</v>
       </c>
       <c r="I104" s="77">
         <f t="shared" ref="I104:J104" ca="1" si="27">F17</f>
-        <v>6184090.35575194</v>
+        <v>2460763.592221885</v>
       </c>
       <c r="J104" s="77">
         <f t="shared" ca="1" si="27"/>
-        <v>7705301.5143061001</v>
+        <v>3419048.6995555656</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2"/>
-      <c r="B105" s="148"/>
-      <c r="C105" s="148"/>
-      <c r="D105" s="148"/>
-      <c r="E105" s="150" t="s">
+      <c r="B105" s="165"/>
+      <c r="C105" s="165"/>
+      <c r="D105" s="165"/>
+      <c r="E105" s="190" t="s">
         <v>440</v>
       </c>
-      <c r="F105" s="150"/>
+      <c r="F105" s="190"/>
       <c r="G105" s="102">
         <f>SUM(G101:G104)</f>
         <v>0</v>
       </c>
       <c r="H105" s="102">
         <f t="shared" ref="H105:J105" ca="1" si="28">SUM(H101:H104)</f>
-        <v>62069732.58330749</v>
+        <v>24156968.91266764</v>
       </c>
       <c r="I105" s="102">
         <f t="shared" ca="1" si="28"/>
-        <v>68024993.913271338</v>
+        <v>27068399.514440734</v>
       </c>
       <c r="J105" s="102">
         <f t="shared" ca="1" si="28"/>
-        <v>84758316.657367095</v>
+        <v>37609535.695111223</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2"/>
-      <c r="B106" s="178" t="s">
+      <c r="B106" s="204" t="s">
         <v>442</v>
       </c>
-      <c r="C106" s="178"/>
-      <c r="D106" s="178"/>
-      <c r="E106" s="178"/>
-      <c r="F106" s="178"/>
+      <c r="C106" s="204"/>
+      <c r="D106" s="204"/>
+      <c r="E106" s="204"/>
+      <c r="F106" s="204"/>
       <c r="G106" s="119">
         <f>G100+G105</f>
         <v>0</v>
       </c>
       <c r="H106" s="119">
         <f ca="1">H100+H105</f>
-        <v>130076053.39208394</v>
+        <v>60804591.593383074</v>
       </c>
       <c r="I106" s="119">
         <f t="shared" ref="I106:J106" ca="1" si="29">I100+I105</f>
-        <v>141892689.62011427</v>
+        <v>67078528.183468238</v>
       </c>
       <c r="J106" s="119">
         <f t="shared" ca="1" si="29"/>
-        <v>172572097.23932278</v>
+        <v>86531384.550488859</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2"/>
-      <c r="B107" s="141" t="s">
+      <c r="B107" s="144" t="s">
         <v>416</v>
       </c>
-      <c r="C107" s="141"/>
-      <c r="D107" s="141"/>
-      <c r="E107" s="141"/>
-      <c r="F107" s="141"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="144"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="144"/>
       <c r="G107" s="77">
         <f ca="1">G82</f>
-        <v>33402587.814618282</v>
+        <v>22462046.761992183</v>
       </c>
       <c r="H107" s="77">
         <f t="shared" ref="H107:J107" ca="1" si="30">H82</f>
-        <v>108567359.27587067</v>
+        <v>59560552.66393207</v>
       </c>
       <c r="I107" s="77">
         <f t="shared" ca="1" si="30"/>
-        <v>117816626.92548083</v>
+        <v>64878108.806757055</v>
       </c>
       <c r="J107" s="77">
         <f t="shared" ca="1" si="30"/>
-        <v>137725502.92602307</v>
+        <v>76795899.854366034</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2"/>
-      <c r="B108" s="179" t="s">
+      <c r="B108" s="201" t="s">
         <v>444</v>
       </c>
-      <c r="C108" s="179"/>
-      <c r="D108" s="179"/>
-      <c r="E108" s="179"/>
-      <c r="F108" s="179"/>
+      <c r="C108" s="201"/>
+      <c r="D108" s="201"/>
+      <c r="E108" s="201"/>
+      <c r="F108" s="201"/>
       <c r="G108" s="95">
         <f ca="1">G107-(G100+G105)</f>
-        <v>33402587.814618282</v>
+        <v>22462046.761992183</v>
       </c>
       <c r="H108" s="95">
         <f t="shared" ref="H108:J108" ca="1" si="31">H107-(H100+H105)</f>
-        <v>-21508694.116213277</v>
+        <v>-1244038.9294510037</v>
       </c>
       <c r="I108" s="95">
         <f t="shared" ca="1" si="31"/>
-        <v>-24076062.694633439</v>
+        <v>-2200419.3767111823</v>
       </c>
       <c r="J108" s="95">
         <f t="shared" ca="1" si="31"/>
-        <v>-34846594.313299716</v>
+        <v>-9735484.6961228251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B20:V20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:E44"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="B101:D105"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="C96:D99"/>
+    <mergeCell ref="B86:B100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="C86:D95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="C75:D81"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C70:D74"/>
+    <mergeCell ref="E74:F74"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="C64:F64"/>
@@ -14177,48 +14253,41 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="B70:B82"/>
-    <mergeCell ref="C75:D81"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C70:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="B101:D105"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="C96:D99"/>
-    <mergeCell ref="B86:B100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="C86:D95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B20:V20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14226,19 +14295,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B2:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -14247,12 +14317,12 @@
       </c>
       <c r="C2" s="121">
         <f ca="1">'Presupuesto de Inversion'!C209</f>
-        <v>34042587.814618282</v>
-      </c>
-      <c r="J2" s="126" t="s">
+        <v>23102046.761992183</v>
+      </c>
+      <c r="J2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="126"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="2:11">
       <c r="J3" s="2" t="s">
@@ -14271,14 +14341,14 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="206" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
@@ -14287,10 +14357,10 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="148"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="62" t="s">
         <v>418</v>
       </c>
@@ -14305,32 +14375,32 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="166" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="166"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
         <f ca="1">'Analisis Financiero'!T65</f>
-        <v>36173327.563769594</v>
+        <v>12388379.404944927</v>
       </c>
       <c r="F7" s="19">
         <f ca="1">'Analisis Financiero'!U65</f>
-        <v>39647072.676411673</v>
+        <v>13948161.687050939</v>
       </c>
       <c r="G7" s="19">
         <f ca="1">'Analisis Financiero'!V65</f>
-        <v>47860515.539593533</v>
+        <v>18256460.666703999</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="166" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="164"/>
+      <c r="C8" s="166"/>
       <c r="D8" s="19">
         <f ca="1">C2*0.7</f>
-        <v>23829811.470232796</v>
+        <v>16171432.733394526</v>
       </c>
       <c r="E8" s="19">
         <v>0</v>
@@ -14343,13 +14413,13 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="166" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="164"/>
+      <c r="C9" s="166"/>
       <c r="D9" s="19">
         <f ca="1">C2*0.3</f>
-        <v>10212776.344385484</v>
+        <v>6930614.0285976548</v>
       </c>
       <c r="E9" s="19">
         <v>0</v>
@@ -14362,13 +14432,13 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="166" t="s">
         <v>448</v>
       </c>
-      <c r="C10" s="164"/>
+      <c r="C10" s="166"/>
       <c r="D10" s="19">
         <f ca="1">SUM(D8:D9)</f>
-        <v>34042587.814618282</v>
+        <v>23102046.761992179</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ref="E10:G10" si="0">SUM(E8:E9)</f>
@@ -14384,35 +14454,35 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="208" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="192"/>
+      <c r="C11" s="208"/>
       <c r="D11" s="122">
         <f ca="1">D7-D10</f>
-        <v>-34042587.814618282</v>
+        <v>-23102046.761992179</v>
       </c>
       <c r="E11" s="122">
         <f t="shared" ref="E11:G11" ca="1" si="1">E7-E10</f>
-        <v>36173327.563769594</v>
+        <v>12388379.404944927</v>
       </c>
       <c r="F11" s="122">
         <f t="shared" ca="1" si="1"/>
-        <v>39647072.676411673</v>
+        <v>13948161.687050939</v>
       </c>
       <c r="G11" s="122">
         <f t="shared" ca="1" si="1"/>
-        <v>47860515.539593533</v>
+        <v>18256460.666703999</v>
       </c>
       <c r="H11" s="68"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="207" t="s">
         <v>452</v>
       </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="62" t="s">
@@ -14431,99 +14501,459 @@
     <row r="15" spans="2:11">
       <c r="B15" s="19">
         <f ca="1">D11</f>
-        <v>-34042587.814618282</v>
+        <v>-23102046.761992179</v>
       </c>
       <c r="C15" s="19">
         <f ca="1">B15+E11</f>
-        <v>2130739.7491513118</v>
+        <v>-10713667.357047252</v>
       </c>
       <c r="D15" s="124">
         <f t="shared" ref="D15:E15" ca="1" si="2">C15+F11</f>
-        <v>41777812.425562985</v>
+        <v>3234494.3300036862</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>89638327.965156525</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="193" t="s">
+        <v>21490954.996707685</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="126" t="s">
         <v>453</v>
       </c>
       <c r="C18" s="124">
         <f ca="1">-C2+(E11/(1+K3))+(F11/((1+K3)*(1+K4)))+(G11/((1+K3)*(1+K4)*(1+K5)))</f>
-        <v>75883416.929093957</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="193" t="s">
+        <v>16441957.927936299</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="126" t="s">
         <v>454</v>
       </c>
-      <c r="C19" s="194">
+      <c r="C19" s="127">
         <f ca="1">C27</f>
-        <v>1.2571219970626573</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+        <v>0.50092936064073124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="195">
+      <c r="C21" s="128">
         <f ca="1">(((E11+F11+G11)/C2)-1)/3</f>
-        <v>0.87770773531563284</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+        <v>0.31008731561200759</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
         <v>456</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">C21*2</f>
-        <v>1.7554154706312657</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <v>0.62017463122401517</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
         <v>457</v>
       </c>
       <c r="C24" s="19">
         <f ca="1">-C2+(E11/(1+C21))+(F11/((1+C21)^2))+(G11/((1+C21)^3))</f>
-        <v>3696173.4472279251</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+        <v>2600092.4471103614</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
         <v>458</v>
       </c>
       <c r="C25" s="19">
         <f ca="1">-C2+(E11/(1+C22))+((F11/(1+C22)^2))+((G11/(1+C22)^3))</f>
-        <v>-13404712.590963496</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+        <v>-5849363.0923768459</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
         <v>459</v>
       </c>
       <c r="C26" s="19">
         <f ca="1">-C25</f>
-        <v>13404712.590963496</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <v>5849363.0923768459</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="196">
+      <c r="C27" s="129">
         <f ca="1">C21+((C22-D2)*(C24/(C24+C26)))</f>
-        <v>1.2571219970626573</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+        <v>0.50092936064073124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="165" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="125" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="210" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="166" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" s="166"/>
+      <c r="D34" s="19">
+        <f>'Presupuesto de Inversion'!E172</f>
+        <v>48303010</v>
+      </c>
+      <c r="E34" s="19">
+        <f>'Presupuesto de Inversion'!F172</f>
+        <v>51257190.600000001</v>
+      </c>
+      <c r="F34" s="19">
+        <f>'Presupuesto de Inversion'!G172</f>
+        <v>54562907.989000008</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="166" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="166"/>
+      <c r="D35" s="19">
+        <f ca="1">'Presupuesto de Inversion'!O196</f>
+        <v>109601737.60430335</v>
+      </c>
+      <c r="E35" s="19">
+        <f ca="1">'Presupuesto de Inversion'!P196</f>
+        <v>118369876.61264761</v>
+      </c>
+      <c r="F35" s="19">
+        <f ca="1">'Presupuesto de Inversion'!Q196</f>
+        <v>136125358.10454476</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="166" t="s">
+        <v>480</v>
+      </c>
+      <c r="C36" s="166"/>
+      <c r="D36" s="19">
+        <f ca="1">'Presupuesto de Inversion'!E182</f>
+        <v>12346635.741124773</v>
+      </c>
+      <c r="E36" s="19">
+        <f ca="1">'Presupuesto de Inversion'!F182</f>
+        <v>13306637.360800866</v>
+      </c>
+      <c r="F36" s="19">
+        <f ca="1">'Presupuesto de Inversion'!G182</f>
+        <v>15177712.740460427</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="126" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37" s="126"/>
+      <c r="D37" s="212">
+        <f ca="1">D34/(D35-D36)</f>
+        <v>0.49666299324794438</v>
+      </c>
+      <c r="E37" s="212">
+        <f t="shared" ref="E37:F37" ca="1" si="3">E34/(E35-E36)</f>
+        <v>0.4878698864131874</v>
+      </c>
+      <c r="F37" s="212">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45112831940424514</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="200" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38" s="200"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="200" t="s">
+        <v>478</v>
+      </c>
+      <c r="C39" s="200"/>
+      <c r="D39" s="19">
+        <f>D34</f>
+        <v>48303010</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" ref="E39:F39" si="4">E34</f>
+        <v>51257190.600000001</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="4"/>
+        <v>54562907.989000008</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="200" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="200"/>
+      <c r="D40" s="19">
+        <f ca="1">'Presupuesto de Inversion'!D188</f>
+        <v>16788.517449488325</v>
+      </c>
+      <c r="E40" s="19">
+        <f ca="1">'Presupuesto de Inversion'!E188</f>
+        <v>14146.131828839389</v>
+      </c>
+      <c r="F40" s="19">
+        <f ca="1">'Presupuesto de Inversion'!F188</f>
+        <v>12638.591204065677</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="200" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" s="200"/>
+      <c r="D41" s="19">
+        <f ca="1">'Presupuesto de Inversion'!D189</f>
+        <v>3239.7364841576418</v>
+      </c>
+      <c r="E41" s="19">
+        <f ca="1">'Presupuesto de Inversion'!E189</f>
+        <v>3899.9523331772762</v>
+      </c>
+      <c r="F41" s="19">
+        <f ca="1">'Presupuesto de Inversion'!F189</f>
+        <v>3955.6196873756653</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="211" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42" s="211"/>
+      <c r="D42" s="126">
+        <f ca="1">D39/(D40-D41)</f>
+        <v>3565.1185242126376</v>
+      </c>
+      <c r="E42" s="126">
+        <f t="shared" ref="E42:F42" ca="1" si="5">E39/(E40-E41)</f>
+        <v>5002.566139086337</v>
+      </c>
+      <c r="F42" s="126">
+        <f t="shared" ca="1" si="5"/>
+        <v>6283.8980738473774</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="200" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="200"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="200"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="200" t="s">
+        <v>478</v>
+      </c>
+      <c r="C44" s="200"/>
+      <c r="D44" s="19">
+        <f>D34</f>
+        <v>48303010</v>
+      </c>
+      <c r="E44" s="19">
+        <f t="shared" ref="E44:F44" si="6">E34</f>
+        <v>51257190.600000001</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="6"/>
+        <v>54562907.989000008</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="200" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="200"/>
+      <c r="D45" s="19">
+        <f ca="1">D36</f>
+        <v>12346635.741124773</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" ref="E45:F45" ca="1" si="7">E36</f>
+        <v>13306637.360800866</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" ca="1" si="7"/>
+        <v>15177712.740460427</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="200" t="s">
+        <v>479</v>
+      </c>
+      <c r="C46" s="200"/>
+      <c r="D46" s="19">
+        <f ca="1">D35</f>
+        <v>109601737.60430335</v>
+      </c>
+      <c r="E46" s="19">
+        <f t="shared" ref="E46:F46" ca="1" si="8">E35</f>
+        <v>118369876.61264761</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" ca="1" si="8"/>
+        <v>136125358.10454476</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="211" t="s">
+        <v>488</v>
+      </c>
+      <c r="C47" s="211"/>
+      <c r="D47" s="124">
+        <f ca="1">D44/(1-(D45/D46))</f>
+        <v>54435127.063729085</v>
+      </c>
+      <c r="E47" s="124">
+        <f t="shared" ref="E47:F47" ca="1" si="9">E44/(1-(E45/E46))</f>
+        <v>57749098.257755399</v>
+      </c>
+      <c r="F47" s="124">
+        <f t="shared" ca="1" si="9"/>
+        <v>61410004.030004323</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="200" t="s">
+        <v>492</v>
+      </c>
+      <c r="C48" s="200"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="200" t="s">
+        <v>489</v>
+      </c>
+      <c r="C49" s="200"/>
+      <c r="D49" s="19">
+        <f ca="1">D47</f>
+        <v>54435127.063729085</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" ref="E49:F49" ca="1" si="10">E47</f>
+        <v>57749098.257755399</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" ca="1" si="10"/>
+        <v>61410004.030004323</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="213" t="s">
+        <v>479</v>
+      </c>
+      <c r="C50" s="214"/>
+      <c r="D50" s="19">
+        <f ca="1">D35</f>
+        <v>109601737.60430335</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" ref="E50:F50" ca="1" si="11">E35</f>
+        <v>118369876.61264761</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" ca="1" si="11"/>
+        <v>136125358.10454476</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="200" t="s">
+        <v>490</v>
+      </c>
+      <c r="C51" s="200"/>
+      <c r="D51" s="2">
+        <v>243</v>
+      </c>
+      <c r="E51" s="2">
+        <v>244</v>
+      </c>
+      <c r="F51" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="211" t="s">
+        <v>491</v>
+      </c>
+      <c r="C52" s="211"/>
+      <c r="D52" s="215">
+        <f ca="1">D49/(D50/D51)</f>
+        <v>120.68910735925049</v>
+      </c>
+      <c r="E52" s="215">
+        <f t="shared" ref="E52:F52" ca="1" si="12">E49/(E50/E51)</f>
+        <v>119.04025228481773</v>
+      </c>
+      <c r="F52" s="215">
+        <f t="shared" ca="1" si="12"/>
+        <v>110.52643825404007</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="209"/>
+      <c r="C53" s="209"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="29">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="J2:K2"/>
@@ -14535,6 +14965,7 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14542,7 +14973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H24"/>
     </sheetView>
   </sheetViews>
@@ -14560,18 +14991,18 @@
       <c r="B2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="198">
+      <c r="C2" s="131">
         <f ca="1">'Indicadores Financieros'!D9</f>
-        <v>10212776.344385484</v>
-      </c>
-      <c r="D2" s="199"/>
+        <v>6930614.0285976548</v>
+      </c>
+      <c r="D2" s="132"/>
       <c r="F2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="200">
+      <c r="G2" s="133">
         <v>12</v>
       </c>
-      <c r="H2" s="199" t="s">
+      <c r="H2" s="132" t="s">
         <v>463</v>
       </c>
     </row>
@@ -14579,19 +15010,19 @@
       <c r="B3" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="133">
         <v>1</v>
       </c>
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="132" t="s">
         <v>463</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G3" s="200">
+      <c r="G3" s="133">
         <v>12</v>
       </c>
-      <c r="H3" s="199" t="s">
+      <c r="H3" s="132" t="s">
         <v>473</v>
       </c>
     </row>
@@ -14599,383 +15030,383 @@
       <c r="B4" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="201">
+      <c r="C4" s="134">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="132"/>
       <c r="F4" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="200">
+      <c r="G4" s="133">
         <f>((1+C4)^(1/12))-1</f>
         <v>2.0784728489500193E-2</v>
       </c>
-      <c r="H4" s="199"/>
+      <c r="H4" s="132"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="108"/>
-      <c r="C5" s="202"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="108"/>
       <c r="F5" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G5" s="207">
+      <c r="G5" s="140">
         <f ca="1">PMT(G4,G2,C2)</f>
-        <v>-970376.15287790948</v>
-      </c>
-      <c r="H5" s="199"/>
+        <v>-658518.54102822149</v>
+      </c>
+      <c r="H5" s="132"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="108"/>
-      <c r="C6" s="202"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="108"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="207">
+      <c r="G6" s="140">
         <f ca="1">-G5</f>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="H6" s="199"/>
+        <v>658518.54102822149</v>
+      </c>
+      <c r="H6" s="132"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="165" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="146" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="146" t="s">
         <v>466</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="146" t="s">
         <v>467</v>
       </c>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="146" t="s">
         <v>468</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="146" t="s">
         <v>469</v>
       </c>
-      <c r="H8" s="138" t="s">
+      <c r="H8" s="146" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="148"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="197">
+      <c r="B10" s="130">
         <v>1</v>
       </c>
-      <c r="C10" s="203">
+      <c r="C10" s="136">
         <f ca="1">C2</f>
-        <v>10212776.344385484</v>
-      </c>
-      <c r="D10" s="203">
+        <v>6930614.0285976548</v>
+      </c>
+      <c r="D10" s="136">
         <f ca="1">C10*$G$4</f>
-        <v>212269.78344204259</v>
-      </c>
-      <c r="E10" s="203">
-        <v>0</v>
-      </c>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203">
-        <v>0</v>
-      </c>
-      <c r="H10" s="203">
+        <v>144050.93084992337</v>
+      </c>
+      <c r="E10" s="136">
+        <v>0</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136">
+        <v>0</v>
+      </c>
+      <c r="H10" s="136">
         <f ca="1">C10</f>
-        <v>10212776.344385484</v>
+        <v>6930614.0285976548</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="197">
+      <c r="B11" s="130">
         <v>2</v>
       </c>
-      <c r="C11" s="203">
+      <c r="C11" s="136">
         <f ca="1">C2</f>
-        <v>10212776.344385484</v>
-      </c>
-      <c r="D11" s="203">
+        <v>6930614.0285976548</v>
+      </c>
+      <c r="D11" s="136">
         <f t="shared" ref="D11:D20" ca="1" si="0">C11*$G$4</f>
-        <v>212269.78344204259</v>
-      </c>
-      <c r="E11" s="203">
+        <v>144050.93084992337</v>
+      </c>
+      <c r="E11" s="136">
         <f ca="1">IF((C11+D11)&gt;$G$6,$G$6,C11+D11)</f>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136">
         <f ca="1">(E11+F11)-D11</f>
-        <v>758106.36943586683</v>
-      </c>
-      <c r="H11" s="203">
+        <v>514467.61017829808</v>
+      </c>
+      <c r="H11" s="136">
         <f ca="1">C11-G11</f>
-        <v>9454669.9749496169</v>
+        <v>6416146.4184193565</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="197">
+      <c r="B12" s="130">
         <v>3</v>
       </c>
-      <c r="C12" s="203">
+      <c r="C12" s="136">
         <f ca="1">H11</f>
-        <v>9454669.9749496169</v>
-      </c>
-      <c r="D12" s="203">
+        <v>6416146.4184193565</v>
+      </c>
+      <c r="D12" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>196512.74838715736</v>
-      </c>
-      <c r="E12" s="203">
+        <v>133357.86125572541</v>
+      </c>
+      <c r="E12" s="136">
         <f t="shared" ref="E12:E21" ca="1" si="1">IF((C12+D12)&gt;$G$6,$G$6,C12+D12)</f>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136">
         <f t="shared" ref="G12:G21" ca="1" si="2">(E12+F12)-D12</f>
-        <v>773863.40449075215</v>
-      </c>
-      <c r="H12" s="203">
+        <v>525160.67977249611</v>
+      </c>
+      <c r="H12" s="136">
         <f t="shared" ref="H12:H21" ca="1" si="3">C12-G12</f>
-        <v>8680806.5704588648</v>
+        <v>5890985.7386468602</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="197">
+      <c r="B13" s="130">
         <v>4</v>
       </c>
-      <c r="C13" s="203">
+      <c r="C13" s="136">
         <f t="shared" ref="C13:C21" ca="1" si="4">H12</f>
-        <v>8680806.5704588648</v>
-      </c>
-      <c r="D13" s="203">
+        <v>5890985.7386468602</v>
+      </c>
+      <c r="D13" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>180428.20763685682</v>
-      </c>
-      <c r="E13" s="203">
+        <v>122442.53911329273</v>
+      </c>
+      <c r="E13" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>789947.94524105266</v>
-      </c>
-      <c r="H13" s="203">
+        <v>536076.00191492878</v>
+      </c>
+      <c r="H13" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>7890858.6252178121</v>
+        <v>5354909.7367319316</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="197">
+      <c r="B14" s="130">
         <v>5</v>
       </c>
-      <c r="C14" s="203">
+      <c r="C14" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>7890858.6252178121</v>
-      </c>
-      <c r="D14" s="203">
+        <v>5354909.7367319316</v>
+      </c>
+      <c r="D14" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>164009.35407418298</v>
-      </c>
-      <c r="E14" s="203">
+        <v>111300.34496375415</v>
+      </c>
+      <c r="E14" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>806366.79880372644</v>
-      </c>
-      <c r="H14" s="203">
+        <v>547218.19606446731</v>
+      </c>
+      <c r="H14" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>7084491.8264140859</v>
+        <v>4807691.540667464</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="197">
+      <c r="B15" s="130">
         <v>6</v>
       </c>
-      <c r="C15" s="203">
+      <c r="C15" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>7084491.8264140859</v>
-      </c>
-      <c r="D15" s="203">
+        <v>4807691.540667464</v>
+      </c>
+      <c r="D15" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>147249.23909810011</v>
-      </c>
-      <c r="E15" s="203">
+        <v>99926.563334040111</v>
+      </c>
+      <c r="E15" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F15" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F15" s="136">
         <v>1500000</v>
       </c>
-      <c r="G15" s="203">
+      <c r="G15" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>2323126.9137798096</v>
-      </c>
-      <c r="H15" s="203">
+        <v>2058591.9776941815</v>
+      </c>
+      <c r="H15" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>4761364.9126342759</v>
+        <v>2749099.5629732823</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="197">
+      <c r="B16" s="130">
         <v>7</v>
       </c>
-      <c r="C16" s="203">
+      <c r="C16" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>4761364.9126342759</v>
-      </c>
-      <c r="D16" s="203">
+        <v>2749099.5629732823</v>
+      </c>
+      <c r="D16" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>98963.676948536231</v>
-      </c>
-      <c r="E16" s="203">
+        <v>57139.288007003306</v>
+      </c>
+      <c r="E16" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>871412.47592937329</v>
-      </c>
-      <c r="H16" s="203">
+        <v>601379.25302121823</v>
+      </c>
+      <c r="H16" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>3889952.4367049024</v>
+        <v>2147720.309952064</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="197">
+      <c r="B17" s="130">
         <v>8</v>
       </c>
-      <c r="C17" s="203">
+      <c r="C17" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>3889952.4367049024</v>
-      </c>
-      <c r="D17" s="203">
+        <v>2147720.309952064</v>
+      </c>
+      <c r="D17" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>80851.605233981085</v>
-      </c>
-      <c r="E17" s="203">
+        <v>44639.783513738847</v>
+      </c>
+      <c r="E17" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>889524.54764392844</v>
-      </c>
-      <c r="H17" s="203">
+        <v>613878.7575144826</v>
+      </c>
+      <c r="H17" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>3000427.8890609741</v>
+        <v>1533841.5524375814</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="197">
+      <c r="B18" s="130">
         <v>9</v>
       </c>
-      <c r="C18" s="203">
+      <c r="C18" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>3000427.8890609741</v>
-      </c>
-      <c r="D18" s="203">
+        <v>1533841.5524375814</v>
+      </c>
+      <c r="D18" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>62363.079026456551</v>
-      </c>
-      <c r="E18" s="203">
+        <v>31880.480213328599</v>
+      </c>
+      <c r="E18" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>908013.07385145291</v>
-      </c>
-      <c r="H18" s="203">
+        <v>626638.06081489287</v>
+      </c>
+      <c r="H18" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>2092414.8152095212</v>
+        <v>907203.49162268848</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="197">
+      <c r="B19" s="130">
         <v>10</v>
       </c>
-      <c r="C19" s="203">
+      <c r="C19" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>2092414.8152095212</v>
-      </c>
-      <c r="D19" s="203">
+        <v>907203.49162268848</v>
+      </c>
+      <c r="D19" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>43490.273821537616</v>
-      </c>
-      <c r="E19" s="203">
+        <v>18855.978258104144</v>
+      </c>
+      <c r="E19" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203">
+        <v>658518.54102822149</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>926885.87905637186</v>
-      </c>
-      <c r="H19" s="203">
+        <v>639662.56277011731</v>
+      </c>
+      <c r="H19" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>1165528.9361531492</v>
+        <v>267540.92885257117</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="197">
+      <c r="B20" s="130">
         <v>11</v>
       </c>
-      <c r="C20" s="203">
+      <c r="C20" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>1165528.9361531492</v>
-      </c>
-      <c r="D20" s="203">
+        <v>267540.92885257117</v>
+      </c>
+      <c r="D20" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>24225.202484599213</v>
-      </c>
-      <c r="E20" s="203">
+        <v>5560.7655660293804</v>
+      </c>
+      <c r="E20" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>970376.15287790948</v>
-      </c>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203">
+        <v>273101.69441860053</v>
+      </c>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>946150.95039331028</v>
-      </c>
-      <c r="H20" s="203">
+        <v>267540.92885257117</v>
+      </c>
+      <c r="H20" s="136">
         <f t="shared" ca="1" si="3"/>
-        <v>219377.98575983895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="197">
+      <c r="B21" s="130">
         <v>12</v>
       </c>
-      <c r="C21" s="203">
+      <c r="C21" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>219377.98575983895</v>
-      </c>
-      <c r="D21" s="203">
+        <v>0</v>
+      </c>
+      <c r="D21" s="136">
         <f ca="1">C21*$G$4</f>
-        <v>4559.7118705916919</v>
-      </c>
-      <c r="E21" s="203">
+        <v>0</v>
+      </c>
+      <c r="E21" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>223937.69763043063</v>
-      </c>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203">
+        <v>0</v>
+      </c>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136">
         <f t="shared" ca="1" si="2"/>
-        <v>219377.98575983895</v>
-      </c>
-      <c r="H21" s="203">
+        <v>0</v>
+      </c>
+      <c r="H21" s="136">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
@@ -14984,29 +15415,29 @@
       <c r="B22" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206">
+      <c r="C22" s="138"/>
+      <c r="D22" s="139">
         <f ca="1">SUM(D10:D21)</f>
-        <v>1427192.6654660846</v>
-      </c>
-      <c r="E22" s="206">
+        <v>913205.46592486347</v>
+      </c>
+      <c r="E22" s="139">
         <f ca="1">SUM(E10:E21)</f>
-        <v>9927699.2264095265</v>
-      </c>
-      <c r="F22" s="206">
+        <v>6199768.5636725938</v>
+      </c>
+      <c r="F22" s="139">
         <f>SUM(F10:F21)</f>
         <v>1500000</v>
       </c>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="D24" s="204" t="s">
+      <c r="D24" s="137" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="122">
         <f ca="1">$C$2+D22</f>
-        <v>11639969.009851569</v>
+        <v>7843819.4945225185</v>
       </c>
     </row>
   </sheetData>
